--- a/finetuning/it_datasets/qa_dataset/qa_it_manouba_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_manouba_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA97"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,75 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out CAFE'IN located at 59 Ave Habib Bourguiba, Manouba 2010. This top-rated destination is perfect for Cafe des arts lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/CAFE%27IN/data=!4m7!3m6!1s0x12fd3353de8ff511:0xd03569dff138b644!8m2!3d36.815!4d10.1008747!16s%2Fg%2F11j0bgfycs!19sChIJEfWP3lMz_RIRRLY48d9pNdA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 565 150.</t>
+          <t>CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you visit a top-rated destination for Cafe des arts lovers in Manouba with highly rated reviews and convenient opening hours?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore:** Universitaire de La Manouba, a renowned university with a beautiful campus (36.8124087, 10.0674471)
+**Mid-Morning:**
+* **Try local cuisine:** Enjoy a delicious breakfast at CAFE'IN, a cozy café with a 4.0 rating (59 Ave Habib Bourguiba)
+**Midday:**
+* **Visit:** Palais Kobbet Ennhas, a historical site and stunning wedding chapel (36.809795648325, 10.093575836048)
+**Afternoon:**
+* **Enjoy:** A peaceful walk or picnic at Mosquée de Manouba, a beautiful mosque open from 4 AM to 9:30 PM (36.8037861, 10.0653004)
+**Evening:**
+* **Participate:** In a guided tour of Musee National Militaire, a historical museum showcasing Tunisia's military history (Coordinates unavailable)
+**Night:**
+* **Relax:** With a delightful dinner at Resto Marino, a seafood restaurant with a perfect 5.0 rating (36.812374, 10.0930597)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+UNO pizza is a restaurant located in Manouba, Tunisia. It is open 24/7 and offers a wide variety of dishes, including pizza, pasta, and salads. The restaurant is located at the following coordinates: 36.8150846, 10.0826309.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Located in Manouba, Musee National Militaire is a historical museum that showcases Tunisia's military history. It houses a vast collection of arms, uniforms, and war memorabilia, offering visitors an immersive experience into the country's past conflicts. The museum's unique setting within a former palace adds to its architectural charm.
+The museum hosts guided tours that provide in-depth insights into the history of Tunisian military and the significance of the exhibits. With its convenient location and educational offerings, Musee National Militaire is an ideal destination for history buffs and anyone interested in exploring Tunisia's cultural heritage.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -770,12 +838,68 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Belgacem located at Belgacem, Manouba Douar hicher, 2086. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8285666, 10.1008111. For more details, call them at 24 244 392.</t>
+          <t>Belgacem is a restaurant located in Manouba, Tunisia. It scored 4.0 out of 5 with 1 review. It offers a variety of dishes in a friendly and welcoming atmosphere. The restaurant can be contacted by phone at +24 244 392.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>In Manouba, where can you find a highly-rated destination with a range of restaurant options that's perfect for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Visit **Palais Kobbet Ennhas** for a glimpse of historical architecture and a cultural immersion.
+Mid-Morning: Explore **Universitaire de La Manouba** to admire the grandeur of the campus and gain insights into the educational landscape of Tunisia.
+Midday: Head to **Resto Marino** and indulge in a delightful seafood lunch, savoring the fresh flavors of the Mediterranean.
+Afternoon: Try local cuisine at **2M**, highly acclaimed for its authentic Tunisian pizzas. Then, engage in outdoor activities like football at the **Manouba football field**.
+Evening: Experience cultural immersion at the **Mosquée de Manouba**, immersing yourself in the spiritual atmosphere and admiring the intricate architecture.
+Night: Relax and unwind at **Cafeteria Walid**, enjoying a cup of coffee or tea as you reflect on the day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has received positive reviews, praising its friendly staff and delicious food. It is located at (36.812374, 10.0930597) and is open from 09:30-23:00.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Located in Manouba, Musee National Militaire is a historical museum that showcases Tunisia's military history. It houses a vast collection of arms, uniforms, and war memorabilia, offering visitors an immersive experience into the country's past conflicts. The museum's unique setting within a former palace adds to its architectural charm.
+The museum hosts guided tours that provide in-depth insights into the history of Tunisian military and the significance of the exhibits. With its convenient location and educational offerings, Musee National Militaire is an ideal destination for history buffs and anyone interested in exploring Tunisia's cultural heritage.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -881,12 +1005,69 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out CAFE'IN located at 59 Ave Habib Bourguiba, Manouba 2010. This top-rated destination is perfect for mqh~ fny lovers and offers a range of mqh~ fny to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 6S-11m, but closed on []. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website or call them at 24 565 150.</t>
+          <t>CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>What highly-rated café can you visit in Manouba, known for its exceptional mqh~ fny options?</t>
+          <t>Day Plan:
+Morning: Explore the historic Musée National Militaire, showcasing Tunisia's military legacy.
+Mid-Morning: Visit the enchanting Mosquée de Manouba, a spiritual sanctuary with stunning architecture.
+Midday: Indulge in authentic Tunisian cuisine at the highly-rated BADI restaurant, savoring its vibrant flavors.
+Afternoon: Discover the natural beauty of the Manouba football field, engaging in a friendly game or simply enjoying the greenery.
+Evening: Stroll through the bustling streets of Manouba, experiencing the local atmosphere and browsing for souvenirs at the vibrant markets.
+Night: Relish a delightful dinner at the charming Pizzeria Gourmet, savoring its wood-fired pizzas in a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Chez Salih Restaurant is a highly-rated restaurant located in Manouba, Tunisia. It offers a range of cuisines and has received positive reviews from customers. The restaurant is situated at coordinates (36.814559184394, 10.099520008126), making it easily accessible to visitors.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+**Musée National Militaire**
+Located in Manouba, Musée National Militaire is a fascinating destination that showcases the rich military history of Tunisia. Nestled amidst the grandeur of the Habib Bourguiba Palace, it boasts a comprehensive collection of weaponry, uniforms, and artifacts that narrate the country's military past from ancient times to contemporary conflicts. Open from 9 am to 4 pm daily, the museum provides a unique glimpse into the country's defense and heritage. Visitors can delve into the history of military campaigns, explore the architectural splendor of the palace, and discover the stories of Tunisia's brave soldiers.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -996,12 +1177,68 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in manouba, visit La perla, a boutique located at La perla, Manouba. This top-rated destination is perfect for Cafe lovers and offers Cafe category. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 16.266399, -61.5053356. For more details, visit their website at nan or call them at 23 491 148.</t>
+          <t>La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>What top-rated boutique in Manouba, known for its excellent coffee, has a cozy atmosphere and is open from 6 AM to 10 PM?</t>
+          <t>Day Plan:
+Morning: Explore the historic Palais Kobbet Ennhas, a captivating wedding chapel.
+Mid-Morning: Indulge in authentic Tunisian cuisine at the highly-rated BADI, known for its traditional ambiance.
+Midday: Visit the sacred Mosquée de Manouba, a spiritual oasis with stunning architectural beauty.
+Afternoon: Engage in outdoor recreation at the Manouba football field, offering a lively atmosphere and sporting facilities.
+Evening: Embark on a guided tour of the Underground Workshop, showcasing the rich history and culture of the region.
+Night: Wind down and relax at the comfortable Royale Club, a weightlifting gym offering a welcoming environment.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+#3roubi resto is a highly-rated restaurant located in Manouba. The restaurant opens daily from 09:00 am to 11:30 pm, except on Wednesdays when it is closed. The restaurant has a 5.0-star rating on Google Maps and offers a wide variety of dining options. #3roubi resto is known for its delicious food and excellent service. The restaurant is located at R3HQ+3MR, Manouba 2086.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Underground Workshop is a museum located in Manouba, Tunisia. It offers a unique experience to visitors, with its focus on showcasing the history and culture of the region. The museum is situated at the coordinates (36.812374, 10.0930597), making it easily accessible to tourists and locals alike.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1340,67 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great cafe, check out Cafe Fethi located at R3FF+G28 Cafe Fethi, Manouba. This top-rated cafe is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-20:00, but closed on none. To get there, use these GPS coordinates: 36.8238114, 10.0726181. For more details, visit their website at none or call them at none.</t>
+          <t>Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a wide selection of options in Manouba?</t>
+          <t>Day Plan:
+**Morning:** Exploring the scenic Mosquée de Manouba, known for its spiritual atmosphere.
+**Mid-Morning:** Trying local cuisine at 2M Pizzeria, renowned for its delicious pizzas and 5-star rating.
+**Midday:** Visiting the Musée National Militaire, a museum showcasing Tunisia's military history and offering a rich collection of artifacts.
+**Afternoon:** Enjoying recreational activities at the Manouba football field, including playing football or engaging in other sports.
+**Evening:** Experiencing cultural immersion at the Palais Kobbet Ennhas, a historical site perfect for organizing events and ceremonies.
+**Night:** Relaxing with a special dinner at BADI, a highly-rated Tunisian restaurant offering an authentic dining experience.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+UNO pizza is a restaurant located in Manouba, Tunisia. It is open 24/7 and offers a wide variety of dishes, including pizza, pasta, and salads. The restaurant is located at the following coordinates: 36.8150846, 10.0826309.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a museum located in Manouba, Tunisia, that showcases and preserves Tunisia's military history. The museum is housed in a historic palace, and displays a collection of artifacts and exhibits that tell the story of Tunisia's military from ancient times to the present day. Exhibits focus on military history, with a focus on arms and military equipment. The museum also has a collection of historical documents and photographs.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1206,14 +1498,74 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great cafe, check out cafe boudhina located at 50 avenue habib bourguiba ,oued ellil, Manouba. 
-This top-rated destination is perfect for cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.835775161769, 9.94138318666. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+boudhina/data=!4m7!3m6!1s0x12fd2deb467c5dd7:0xcf2a1bad6caf3534!8m2!3d36.8323643!4d10.0399399!16s%2Fg%2F11frxzcp69!19sChIJ1118Rust_RIRNDWvbK0bKs8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a variety of options in the Manouba area?</t>
+          <t>Day Plan:
+Morning: Explore the historic landmarks of **Palais Kobbet Ennhas** and **Musée National Militaire**.
+Mid-Morning: Indulge in the local culinary delights at the top-rated **MAC REGAL**.
+Midday: Visit the renowned **Universitaire de La Manouba** for a glimpse into the city's academic achievements.
+Afternoon: Engage in outdoor activities at the **Manouba football field** or the scenic **Mosquée de Manouba**.
+Evening: Immerse yourself in the vibrant atmosphere of **BADI** for an authentic Tunisian dining experience.
+Night: Relax and recharge with a rejuvenating spa treatment at a local hotel or spa.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+MAC REGAL is a restaurant located in Manouba, Tunisia. It has a rating of 5.0 stars based on 2 reviews and is open from 09:00 to 23:30 daily. The restaurant can be found at the coordinates (36.812374, 10.0930597) and offers a variety of dining options.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a military museum located in Manouba, Tunisia. The museum is housed in a historic palace that was built in the 19th century. The museum's collection includes a variety of military artifacts, including weapons, uniforms, and vehicles. The museum also has a library and a research center.
+The Musée National Militaire is a popular tourist destination. The museum is open to the public from Tuesday to Sunday, from 9:00 AM to 4:00 PM. The museum is closed on Mondays.
+The Musée National Militaire is located at the following address:
+Musee National Militaire
+53 Ave Habib Bourguiba 2010, Tunisia
++216 70 604 018
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1315,15 +1667,67 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a delicious cup of coffee, head to Hamdi Coffee, located at Faculty Road Bjewa, Manouba, Bjewa 2021. 
-This top-rated cafe is a must-visit spot for coffee lovers, offering a range of coffee drinks to choose from. 
-With an impressive rating of 5.0, it's sure to satisfy your caffeine cravings. It is open daily, but the hours of operation may vary, so it's best to call ahead. 
-For more details, you can call them at 23 494 867.</t>
+          <t>Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated cafe in Manouba renowned for its exceptional coffee experience?</t>
+          <t>Day Plan:
+Morning: Explore the historical site of Palais Kobbet Ennhas, admiring its stunning architecture and beautiful surroundings.
+Mid-Morning: Visit the Musee National Militaire to delve into Tunisia's rich military history, gaining insights through exhibits and guided tours.
+Midday: Delight in the authentic Tunisian flavors at the highly-rated restaurant BADI, savoring the traditional cuisine and vibrant atmosphere.
+Afternoon: Take a leisurely stroll through the Mosquée de Manouba, immersing yourself in its spiritual ambiance and beautiful architecture.
+Evening: Head to the Station El Gobaa for an enjoyable ride and explore the scenic surroundings of Manouba.
+Night: Enjoy a relaxing evening at the luxurious Palais Kobbet Ennhas, admiring the stunning views and soaking in the ambiance of this historical gem.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+#3roubi resto is a highly-rated restaurant located in Manouba. The restaurant opens daily from 09:00 am to 11:30 pm, except on Wednesdays when it is closed. The restaurant has a 5.0-star rating on Google Maps and offers a wide variety of dining options. #3roubi resto is known for its delicious food and excellent service. The restaurant is located at R3HQ+3MR, Manouba 2086.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+In Manouba, Tunisia, the Musee National Militaire is located at coordinates (36.809795648325, 10.093575836048). It offers insights into Tunisia's military history through exhibits showcasing weapons and artifacts, and provides tours detailing past conflicts and important figures. The museum is open from 9 AM to 4 PM Tuesday through Sunday, except Mondays.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1833,69 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Universitaire de La Manouba located at R398+82 Universitaire de La Manouba, Campus Universitaire de La Manouba, Cite Nasr 2010. This top-rated destination is perfect for Universite lovers. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.8124087, 10.0674471. For more details, visit their website at http://www.uma.rnu.tn/ or call them at 71 601 499.</t>
+          <t>Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Universite-themed destination with a rating of 4.2 in Manouba?</t>
+          <t>Day Plan:
+Morning: Exploring Universitaire de La Manouba
+Mid-Morning: Trying local cuisine at Resto Marino
+Midday: Visiting Palais Kobbet Ennhas
+Afternoon: Taking a guided tour of Musée National Militaire
+Evening: Relaxing with a massage at a local spa
+Night: Enjoying scenic views at Mosquée de Manouba</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+**Musée National Militaire**
+Located in Manouba, Musée National Militaire is a fascinating destination that showcases the rich military history of Tunisia. Nestled amidst the grandeur of the Habib Bourguiba Palace, it boasts a comprehensive collection of weaponry, uniforms, and artifacts that narrate the country's military past from ancient times to contemporary conflicts. Open from 9 am to 4 pm daily, the museum provides a unique glimpse into the country's defense and heritage. Visitors can delve into the history of military campaigns, explore the architectural splendor of the palace, and discover the stories of Tunisia's brave soldiers.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1997,73 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated seafood restaurant, check out Resto marino located at R439+FMV Resto marino, P5, Manouba. With a rating of 5.0, it's a must-visit spot for seafood lovers. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Resto+marino/data=!4m7!3m6!1s0x12fd3389eb47ec4b:0x8bc20072f7e160d4!8m2!3d36.8038822!4d10.1192281!16s%2Fg%2F11s4x4pkmj!19sChIJS-xH64kz_RIR1GDh93IAwos?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 025 739.</t>
+          <t>Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated seafood restaurant in Manouba, accessible using GPS coordinates or a website, and boasting a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical site of Universitaire de La Manouba.
+Mid-Morning:
+- Try local cuisine at Resto Marino, known for its excellent seafood dishes.
+Midday:
+- Immerse yourself in the traditional crafts and culture of Tunisia at The Underground Workshop.
+Afternoon:
+- Relax at the Manouba football field with a friendly game.
+Evening:
+- Shop for souvenirs or local products at La_Granja_by_saf.
+Night:
+- Indulge in a delicious dinner at BADI, renowned for its authentic Tunisian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Tooka Restaurant, located at 24 Habib bourguiba in Manouba (Tunisia), offers a delightful culinary experience with a 4.9-star rating based on 8 reviews. With a convenient website (https://tooka.tn/) and phone number (21 729 728), reservations are made easy. The featured image showcases the vibrant ambiance of the restaurant, while the workday timings of 10:00-23:00 ensure flexibility for diners. The coordinates (36.809955772971, 10.093606997312) provide precise location details. Discover the flavors of Tooka Restaurant today!
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Underground Workshop in Manouba is a museum showcasing Tunisia's rich culture and history. It offers a unique experience, immersing visitors in the traditional crafts and lifestyle of the country. Located at (36.812374, 10.0930597), this highly-rated destination is a must-see for tourists and history enthusiasts alike.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1651,14 +2173,74 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Palais Kobbet Ennhas located at R35V+WHQ Palais Kobbet Ennhas, 53 Ave Habib Bourguiba, Manouba 2010. 
-This top-rated destination is perfect for Site historique and Chapelle de mariage lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-12:00, 13:30-16:30, but closed on dimanche. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.palaiskobbetennhas.com/ or call them at 70 615 888.</t>
+          <t>Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Manouba can you visit a highly-rated historical site and wedding chapel with a 4.3 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Visit the Musée National Militaire to explore Tunisia's rich military history.
+**Mid-Morning:**
+* Stroll through the scenic Mosquée de Manouba for a spiritual experience.
+**Midday:**
+* Indulge in authentic Tunisian cuisine at the highly-rated BADI restaurant.
+**Afternoon:**
+* Explore the picturesque Palais Kobbet Ennhas, a historical site with stunning architecture.
+**Evening:**
+* Take a leisurely walk in the enchanting Parc de la Manouba, enjoying its lush greenery and tranquil ambiance.
+**Night:**
+* Experience the vibrant atmosphere of the Resto Marino restaurant, renowned for its delectable seafood dishes.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Resto maya is a highly-rated (5.0) restaurant located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. It is a popular spot among locals and has received positive reviews for its cuisine. Unfortunately, we have no further information regarding the specific dishes offered or the restaurant's ambiance. For more details, we recommend checking their online presence or contacting the establishment directly.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire, located in the heart of Manouba, is a treasure trove of Tunisian military history and culture. Situated in a grand palace, it boasts a remarkable collection of weapons, uniforms, and artifacts that trace the country's rich military heritage from ancient times to modern conflicts. Visitors can explore the museum's various halls and exhibits, each providing insights into the key battles, wars, and personalities that shaped Tunisia's military history. The museum is easily accessible, just a short distance from the city center and offers guided tours for an immersive and educational experience.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1764,14 +2346,68 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in manouba, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee,Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundis. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>In Manouba, Tunisia, the Musee National Militaire is located at coordinates (36.809795648325, 10.093575836048). It offers insights into Tunisia's military history through exhibits showcasing weapons and artifacts, and provides tours detailing past conflicts and important figures. The museum is open from 9 AM to 4 PM Tuesday through Sunday, except Mondays.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you explore a top-rated destination with a wide selection of Musee options in Manouba?</t>
+          <t>Day Plan:
+Morning: Exploring the historical site Palais Kobbet Ennhas
+Mid-Morning: Trying local cuisine at the highly-rated seafood restaurant Resto Marino
+Midday: Visiting the renowned university Universitaire de La Manouba
+Afternoon: Relaxing with a guided tour of The Underground Workshop, a museum showcasing Tunisia's rich culture and history
+Evening: Participating in the vibrant cultural immersion at Mosquée de Manouba, a stunning mosque with a 4.8-star rating
+Night: Enjoying the scenic views at the beautiful Manouba football field, a popular spot for locals and tourists alike</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+FOOD 707 is a 4.1-rated restaurant in manouba, Tunisia located at (36.812374, 10.0930597). It specializes in pizza and offers a variety of other dining options.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Underground Workshop in Manouba is a museum showcasing Tunisia's rich culture and history. It offers a unique experience, immersing visitors in the traditional crafts and lifestyle of the country. Located at (36.812374, 10.0930597), this highly-rated destination is a must-see for tourists and history enthusiasts alike.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1869,13 +2505,74 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in Manouba, Palais El-Warda is a top-rated metro station located at Palais El-Warda, Manouba 2010. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.816395539235, 10.084606274771.</t>
+          <t>Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>If you're seeking a highly rated metro station in Manouba, where can you go to find a place with a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: **Explore the Musée National Militaire**
+Discover the military history of Tunisia at this renowned museum, showcasing a collection of weapons, uniforms, and artifacts.
+Mid-Morning: **Try local cuisine at PSP Ndeg D 10**
+Indulge in traditional Tunisian and international fare at this highly-rated restaurant, praised for its friendly staff and delicious food.
+Midday: **Visit Palais Kobbet Ennhas**
+Admire the architectural beauty of this historical site and wedding chapel, offering a magnificent space for events.
+Afternoon: **Enjoy scenic views at Mosquée de Manouba**
+Immerse yourself in the spiritual atmosphere of this stunning mosque, renowned for its breathtaking views and serene ambiance.
+Evening: **Experience cultural immersion at the Medina of Tunis**
+Explore the vibrant streets of this historical city center, offering a glimpse into the rich culture and heritage of Tunisia.
+Night: **Dine at BADI**
+Savor authentic Tunisian cuisine in a cozy ambiance, enjoying the flavors and traditions of the region.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has received positive reviews, praising its friendly staff and delicious food. It is located at (36.812374, 10.0930597) and is open from 09:30-23:00.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire, located at 53 Ave Habib Bourguiba, Manouba, is a military museum in Tunisia. It showcases the military history of the country, displaying a collection of weapons, uniforms, and other artifacts. The museum is a popular tourist destination, with a 4.6-star rating based on 140 reviews.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1981,12 +2678,68 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for an interesting museum to explore, visit Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. With a rating of 4.6, it's a top-rated spot. It's open during these hours: 09:00-16:00, but closed on Mondays.</t>
+          <t>The Musee National Militaire is located in Manouba, and offers a comprehensive history of military conflicts in Tunisia. This building was built in 1989 over an area of 12 hectares and has been open to the public since 1991. The collections depict the military apparatus of the Tunisian army over the last two centuries, showcasing weapons, costumes, decorations, and military equipment. Additionally, the museum hosts a variety of cultural events, such as exhibitions and conferences.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Which museum located in Manouba holds a 4.6 rating and offers a fascinating exploration into military history?</t>
+          <t>Day Plan:
+Morning: Explore the historical site of Palais Kobbet Ennhas.
+Mid-Morning: Visit the Musée National Militaire to immerse yourself in Tunisia's military history.
+Midday: Try local cuisine at the highly-rated Tunisian restaurant BADI.
+Afternoon: Take a guided tour of the stunning Mosquée de Manouba.
+Evening: Enjoy scenic views at the Manouba football field.
+Night: Experience cultural immersion at the Station Transport en Commun La Manouba, where you can interact with locals and soak up the atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Djerba Resto is a highly rated restaurant located in Manouba, Tunisia. The restaurant offers a variety of dishes, and has received positive reviews from customers. It is located at the following coordinates: (36.854656307718, 9.938288999294).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+**Musée National Militaire**
+Located in Manouba, Musée National Militaire is a fascinating destination that showcases the rich military history of Tunisia. Nestled amidst the grandeur of the Habib Bourguiba Palace, it boasts a comprehensive collection of weaponry, uniforms, and artifacts that narrate the country's military past from ancient times to contemporary conflicts. Open from 9 am to 4 pm daily, the museum provides a unique glimpse into the country's defense and heritage. Visitors can delve into the history of military campaigns, explore the architectural splendor of the palace, and discover the stories of Tunisia's brave soldiers.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2092,14 +2845,70 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>If you're in Manouba and looking for a unique attraction with a high rating and a diverse range of offerings specifically for Musee enthusiasts, where should you go?</t>
+          <t>Day Plan:
+Morning: Explore Mosquée de Manouba for its spiritual atmosphere.
+Mid-Morning: Take a guided tour of Universitaire de La Manouba for its academic excellence.
+Midday: Try local cuisine at BADI, a highly-rated Tunisian restaurant.
+Afternoon: Enjoy recreational activities at Manouba football field, such as playing soccer.
+Evening: Visit Palais Kobbet Ennhas, a historical site perfect for organizing ceremonies.
+Night: Relax with a movie or entertainment at Royale Club, a weightlifting gym with entertainment facilities.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+#3roubi resto is a highly-rated restaurant located in Manouba. The restaurant opens daily from 09:00 am to 11:30 pm, except on Wednesdays when it is closed. The restaurant has a 5.0-star rating on Google Maps and offers a wide variety of dining options. #3roubi resto is known for its delicious food and excellent service. The restaurant is located at R3HQ+3MR, Manouba 2086.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Underground Workshop is a museum located in Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It has received a 5.0 rating from a single review.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2205,12 +3014,73 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, call them at 70 604 018.</t>
+          <t>The Musee National Militaire houses a collection of military artifacts and documents telling the story of Tunisia's military past. Housed in a grand palace, the museum features displays on various wars and conflicts, weapons, and military history. Guided tours are available to provide insights into the significance of the exhibits.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated military museum with a 4.6-star rating in Manouba, Tunisia?</t>
+          <t>Day Plan:
+Morning: Exploring the Mosquée de Manouba (4.8-star rating) for a spiritual experience and cultural immersion.
+Mid-Morning: Trying local cuisine at BADI (5.0-star rating), an authentic Tunisian restaurant, for a taste of the local flavors.
+Midday: Visiting Palais Kobbet Ennhas (4.3-star rating), a historical site and wedding chapel, for its stunning architecture and cultural significance.
+Afternoon: Enjoying outdoor activities like football at the Manouba football field (4.0-star rating) for some physical activity and fun.
+Evening: Relaxing with a scenic boat ride on Lac de Tunis (4.1-star rating) for a peaceful and picturesque experience.
+Night: Participating in the vibrant and authentic atmosphere at La_Granja_by_saf (4.1-star rating), a Restaurant familial offering a variety of dishes and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 9:30am to 11:00pm and is closed on Sundays. It is located at the coordinates (36.812374, 10.0930597).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a military museum located in Manouba, Tunisia. The museum is housed in a historic palace that was built in the 19th century. The museum's collection includes a variety of military artifacts, including weapons, uniforms, and vehicles. The museum also has a library and a research center.
+The Musée National Militaire is a popular tourist destination. The museum is open to the public from Tuesday to Sunday, from 9:00 AM to 4:00 PM. The museum is closed on Mondays.
+The Musée National Militaire is located at the following address:
+Musee National Militaire
+53 Ave Habib Bourguiba 2010, Tunisia
++216 70 604 018
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2316,16 +3186,68 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a fantastic museum experience, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba. 
-This top-rated destination is perfect for Musee lovers and has a rating of 4.6 out of 5 stars. 
-It's open during these hours: 09:00-16:00, but closed on Mondays, so plan your visit accordingly. 
-To get there, you can use this GPS coordinates: 36.809795648325, 10.093575836048. 
-For more details, call them at 70 604 018.</t>
+          <t>Located in Manouba, Musee National Militaire is a historical museum that showcases Tunisia's military history. It houses a vast collection of arms, uniforms, and war memorabilia, offering visitors an immersive experience into the country's past conflicts. The museum's unique setting within a former palace adds to its architectural charm.
+The museum hosts guided tours that provide in-depth insights into the history of Tunisian military and the significance of the exhibits. With its convenient location and educational offerings, Musee National Militaire is an ideal destination for history buffs and anyone interested in exploring Tunisia's cultural heritage.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly acclaimed military museum with a star rating of 4.6 and specific opening hours?</t>
+          <t>Day Plan:
+Morning: Exploring the Musée National Militaire to discover Tunisia's military history.
+Mid-Morning: Trying local cuisine at CAFE'IN, a cozy café with a 4.0 rating.
+Midday: Visiting the Mosquée de Manouba, a renowned mosque with a 4.8-star rating.
+Afternoon: Enjoying a scenic walk at the Parc Zoologique du Belvédère, known for its diverse animal collection.
+Evening: Dining at BADI, a highly-rated Tunisian restaurant with a 5.0 rating.
+Night: Experiencing the cultural ambiance at the Palais Kobbet Ennhas, a historical site and wedding chapel.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Patisserie douiri is a restaurant located in Manouba (coordinates: 36.812374, 10.0930597). Rated 4.7 stars, it offers a range of dining options and has received positive reviews from customers. The restaurant is open from 09:00 to 19:45 and is closed on []. To make a reservation or for more information, call 23 134 544.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is located in Manouba, and offers a comprehensive history of military conflicts in Tunisia. This building was built in 1989 over an area of 12 hectares and has been open to the public since 1991. The collections depict the military apparatus of the Tunisian army over the last two centuries, showcasing weapons, costumes, decorations, and military equipment. Additionally, the museum hosts a variety of cultural events, such as exhibitions and conferences.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2431,12 +3353,68 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in manouba and seeking an enriching cultural experience, head to Musee National Militaire, located at 53 Ave Habib Bourguiba. As a top-rated museum with a 4.6 rating, it's a must-visit spot for history enthusiasts and culture lovers alike. You can immerse yourself in military history and explore a range of captivating exhibits. The museum is open from 09:00-16:00 during weekdays, except for Mondays. To get there, use GPS coordinates (36.809795648325, 10.093575836048) or call 70 604 018 for any queries.</t>
+          <t>The Military National Museum of Manouba is located in Tunisia and proposes a historical journey through military history. This attraction offers many insights into the country's military history and displays ancient weaponry, uniforms, and vehicles. It is a great place to learn about Tunisia's military history and see some impressive artifacts. The museum is also located in a beautiful palace, which is worth a visit in its own right.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Question: Where can you find a top-rated museum in Manouba that showcases military history with a 4.6 rating and offers captivating exhibits for history and culture enthusiasts?</t>
+          <t>Day Plan:
+Morning: Begin your day by exploring the Campus Universitaire de La Manouba, a renowned educational institution with picturesque surroundings. (Station Campus Universitaire)
+Mid-Morning: Immerse yourself in local flavors by savoring a delicious lunch at Restaurant roufa, known for its authentic fast food options. (Restaurant roufa)
+Midday: Discover the intriguing Palais Kobbet Ennhas, a historical site blending architecture and cultural significance. (Palais Kobbet Ennhas)
+Afternoon: Engage in some outdoor recreation at the Manouba football field, offering a perfect setting for friendly matches or a refreshing workout. (Manouba football field)
+Evening: Pamper yourself with a relaxing experience at a spa or hotel, soothing your senses after a day of exploration. (Spa/Hotel)
+Night: Experience the vibrant dining scene at BADI, a highly-rated Tunisian restaurant offering an authentic culinary journey. (BADI)</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Resto maya is a highly-rated (5.0) restaurant located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. It is a popular spot among locals and has received positive reviews for its cuisine. Unfortunately, we have no further information regarding the specific dishes offered or the restaurant's ambiance. For more details, we recommend checking their online presence or contacting the establishment directly.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a museum in Manouba, Tunisia, located at 36.809795648325, 10.093575836048. It receives 4.6 rating out of 5 from its 140 reviews and is open from 09:00-16:00 every day except Monday. The museum focuses on military history, with exhibits on weapons, wars, and the history of Tunisia. The museum is housed in a palace and is known for its architecture.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2542,12 +3520,68 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in Manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on Monday. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The National Military Museum is located in Manouba, Tunisia, showcasing the country's military history. Situated at 53 Habib Bourguiba Avenue, it features exhibits on military achievements and conflicts. The museum is open from 9:00 AM to 4:00 PM daily, except for Mondays, and admission typically requires a fee. It is renowned for its collection of weapons, military equipment, and historical artifacts.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find one of Manouba's most highly rated attractions for Musee enthusiasts, open during specific hours except on Mondays?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant city of Manouba and visit the stunning Mosquée de Manouba, known for its spiritual atmosphere and architectural beauty.
+Mid-Morning: Immerse yourself in the local culture and indulge in traditional Tunisian cuisine at BADI, a highly-rated restaurant that offers an authentic dining experience.
+Midday: Take a break to relax and rejuvenate at the luxurious Palais Kobbet Ennhas, a historical site with a serene ambiance and excellent amenities.
+Afternoon: Head to the Manouba football field to catch an exciting local football match and witness the passion of the local community.
+Evening: Explore the picturesque Terre Agricole, a 5-star agricultural place that offers a serene retreat and stunning views of the countryside.
+Night: Conclude the day with a delightful dinner at La_Granja_by_saf, a Restaurant familial known for its exquisite dishes and welcoming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+wld lby` n`ym is a restaurant in Manouba known for its excellent food, as evidenced by its impressive 5.0 rating from a customer review. Located at 17 Avenue Farhat Hached, the establishment's exact geographic coordinates are latitude 36.80609228872 and longitude 10.095230317719.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum in Manouba, Tunisia, dedicated to military history. It is located in a palace that was built in 1984 and houses a collection of weapons, uniforms, and other artifacts from Tunisian military history. The museum also offers guided tours of its exhibits.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2653,12 +3687,67 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a captivating museum to explore, visit the Musee National Militaire at 53 Ave Habib Bourguiba, Manouba. This top-rated destination showcases Tunisia's military history and offers a range of exhibits on various wars and conflicts. With a rating of 4.6, it's a must-visit spot for history enthusiasts. It's open Tuesdays through Sundays from 09:00-16:00. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website or call 70 604 018.</t>
+          <t>Musee National Militaire is a museum in Manouba, Tunisia, located at 36.809795648325, 10.093575836048. It receives 4.6 rating out of 5 from its 140 reviews and is open from 09:00-16:00 every day except Monday. The museum focuses on military history, with exhibits on weapons, wars, and the history of Tunisia. The museum is housed in a palace and is known for its architecture.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you visit a highly acclaimed military museum showcasing Tunisia's rich military history, conveniently located in Manouba?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Mosquée de Manouba, known for its spiritual atmosphere and stunning architecture.
+Mid-Morning: Trying local cuisine at the highly-rated Tunisian restaurant BADI, offering an authentic dining experience.
+Midday: Visiting the historical landmark Palais Kobbet Ennhas, a magnificent space for ceremonies and events.
+Afternoon: Enjoying the outdoors at Terre Agricole, a 5-star rated Agricultural place offering a range of products and services.
+Evening: Participating in a guided tour of the National Military Museum, showcasing the country's military history and conflicts.
+Night: Relaxing with a delightful culinary experience at Resto Marino, a renowned seafood restaurant with a perfect 5.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+GIOSUE PIZZA is a restaurant located in manouba, Tunisia. It is a 4.4-star rated restaurant with 5 reviews. The restaurant is open from 10:00-22:00 and is closed on no specified days. GIOSUE PIZZA can be contacted at 01 25 076 021.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The National Military Museum is located in Manouba, Tunisia, showcasing the country's military history. Situated at 53 Habib Bourguiba Avenue, it features exhibits on military achievements and conflicts. The museum is open from 9:00 AM to 4:00 PM daily, except for Mondays, and admission typically requires a fee. It is renowned for its collection of weapons, military equipment, and historical artifacts.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2764,12 +3853,74 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The Musée National Militaire is a museum located in Manouba, Tunisia, that showcases and preserves Tunisia's military history. The museum is housed in a historic palace, and displays a collection of artifacts and exhibits that tell the story of Tunisia's military from ancient times to the present day. Exhibits focus on military history, with a focus on arms and military equipment. The museum also has a collection of historical documents and photographs.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you visit a top-rated destination with a 4.6 rating, offering a range of tourist attractions perfect for museum enthusiasts in Manouba?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Exploring the stunning Mosquée de Manouba, immersing in its spiritual atmosphere.
+- Visiting the renowned University of Manouba, witnessing its academic excellence.
+**Mid-Morning:**
+- Enjoying a delightful coffee experience at CAFE'IN, known for its cozy ambiance.
+**Midday:**
+- Trying local cuisine at Resto Marino, indulging in their seafood culinary experience.
+**Afternoon:**
+- Exploring the historical Palais Kobbet Ennhas, a magnificent space for ceremonies and events.
+**Evening:**
+- Engaging in outdoor activities like jogging or cycling at the Manouba Football Field.
+**Night:**
+- Relaxing with a soothing massage at a spa or hotel, rejuvenating after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Chez Salih Restaurant is a highly-rated restaurant located in Manouba, Tunisia. It offers a range of cuisines and has received positive reviews from customers. The restaurant is situated at coordinates (36.814559184394, 10.099520008126), making it easily accessible to visitors.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Underground Workshop is a museum located in Manouba, Tunisia. It offers a unique experience to visitors, with its focus on showcasing the history and culture of the region. The museum is situated at the coordinates (36.812374, 10.0930597), making it easily accessible to tourists and locals alike.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2863,12 +4014,68 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Underground workshop located at Q3XQ+7H2 Underground workshop, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Underground+workshop/data=!4m7!3m6!1s0x12fd320e86b0e3bf:0xbf7f64309045edda!8m2!3d36.7981292!4d10.0889052!16s%2Fg%2F11f03vv6hl!19sChIJv-Owhg4y_RIR2u1FkDBkf78?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Underground Workshop is a museum located in Manouba, Tunisia. It offers a unique experience to visitors, with its focus on showcasing the history and culture of the region. The museum is situated at the coordinates (36.812374, 10.0930597), making it easily accessible to tourists and locals alike.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly-rated destination renowned for its exceptional Musee offerings?</t>
+          <t>Day Plan:
+Morning: Explore the Military National Museum of Manouba and learn about the region's history.
+Mid-Morning: Visit the stunning Mosquée de Manouba, a renowned spiritual site.
+Midday: Try local cuisine at BADI, a highly-rated Tunisian restaurant.
+Afternoon: Enjoy scenic views at Palais Kobbet Ennhas, a historical wedding chapel.
+Evening: Experience cultural immersion at the Universitaire de La Manouba, a prestigious university.
+Night: Relax with a traditional Hammam experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+**wld lby` n`ym** is a restaurant in **manouba**, Tunisia. Located at coordinates (36.80609228872, 10.095230317719), it offers a variety of dishes and has received a 5-star rating from one reviewer. The restaurant's featured image is available at https://lh5.googleusercontent.com/p/AF1QipNNYty5CIgbIJzmI_8IUuAaO5yn0RdP1Gd55D94=w408-h544-k-no.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Military National Museum of Manouba is located in Tunisia and proposes a historical journey through military history. This attraction offers many insights into the country's military history and displays ancient weaponry, uniforms, and vehicles. It is a great place to learn about Tunisia's military history and see some impressive artifacts. The museum is also located in a beautiful palace, which is worth a visit in its own right.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2974,12 +4181,68 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a fun and educational outing, check out Musee National Militaire located at 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for history and military buffs, offering a range of exhibits to explore. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on Mondays. For more details, visit the website or call 70 604 018.</t>
+          <t>The Musee National Militaire is a museum in Manouba, Tunisia, dedicated to military history. It is located in a palace that was built in 1984 and houses a collection of weapons, uniforms, and other artifacts from Tunisian military history. The museum also offers guided tours of its exhibits.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>What is the top-rated destination in Manouba, perfect for history and military enthusiasts, located on Avenue Habib Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the historical Palais Kobbet Ennhas
+Mid-Morning: Visit the Musée National Militaire to delve into Tunisian military history
+Midday: Savor authentic Tunisian cuisine at BADI
+Afternoon: Engage in outdoor activities at the Manouba football field
+Evening: Relax with a drink or two at CAFE'IN
+Night: Experience the vibrant atmosphere at La_Granja_by_saf while indulging in delicious food</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Djerba Resto, located in Manouba (coordinates: 36.854656307718, 9.938288999294), is a restaurant that serves delicious food and has a great ambiance. It's a popular spot for locals and tourists alike, and the staff is always friendly and welcoming. The menu features a variety of dishes, including traditional Tunisian cuisine and international favorites. Djerba Resto is also a great place to relax and enjoy a drink or two with friends.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire, located in the heart of Manouba, is a treasure trove of Tunisian military history and culture. Situated in a grand palace, it boasts a remarkable collection of weapons, uniforms, and artifacts that trace the country's rich military heritage from ancient times to modern conflicts. Visitors can explore the museum's various halls and exhibits, each providing insights into the key battles, wars, and personalities that shaped Tunisia's military history. The museum is easily accessible, just a short distance from the city center and offers guided tours for an immersive and educational experience.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3077,12 +4340,68 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in manouba, check out Palais El-Warda located at Palais El-Warda, Manouba 2010. This top-rated destination is perfect for those who love Station de metro and offers a range of Station de metro options to choose from. With a rating of 4.5, it's a must-visit spot. The GPS coordinates are (36.816395539235, 10.084606274771).</t>
+          <t>Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>For travelers interested in exploring sites related to Station de metro, what highly-rated destination in Manouba should they visit?</t>
+          <t>Day Plan:
+Morning: Explore the historical Palais Kobbet Ennhas.
+Mid-Morning: Visit the Universitaire de La Manouba for cultural immersion.
+Midday: Dine at Resto Marino for a delightful seafood experience.
+Afternoon: Take a guided tour of the Musee National Militaire to delve into military history.
+Evening: Enjoy scenic views and spiritual immersion at the Mosquée de Manouba.
+Night: Experience the energetic atmosphere at Royale Club with a weightlifting session.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Restaurant Habib Pizzaria is a highly-rated restaurant located in the city of Manouba, Tunisia. It is known for its delicious pizzas and friendly service. The restaurant is located at R3FP+C2P Avenue Khaled Ibn El Walid, and its coordinates are (36.817297092048, 10.095003514771).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum in Manouba, Tunisia, dedicated to military history. It is located in a palace that was built in 1984 and houses a collection of weapons, uniforms, and other artifacts from Tunisian military history. The museum also offers guided tours of its exhibits.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3176,15 +4495,67 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Underground workshop located at Q3XQ+7H2 Underground workshop, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.812374, 10.0930597.</t>
+          <t>The Underground Workshop is a museum located in Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It has received a 5.0 rating from a single review.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>What highly-rated, must-visit destination in Manouba is a haven for Musee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Mosquée de Manouba, renowned for its spiritual ambiance and stunning architecture.
+Mid-Morning: Try local cuisine at the highly-rated BADI restaurant, offering an authentic Tunisian dining experience.
+Midday: Visit the Musée National Militaire to delve into Tunisia's military history, showcasing an impressive collection of artifacts and exhibits.
+Afternoon: Enjoy recreational activities at the Manouba football field, perfect for experiencing the city's sporting spirit.
+Evening: Engage in cultural immersion at the Universitaire de La Manouba, offering insights into educational life and local culture.
+Night: Relax with a stroll through the scenic Palais Kobbet Ennhas, a historical site illuminated with ambient lighting, offering picturesque views of the surroundings.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+O BNIN is a restaurant located in Manouba, Tunisia. It offers a variety of dishes at a 5-star rating based on 9 reviews. It is on 40 rue des travailleurs, 34 N7, Manouba. Open from Monday to Saturday from 07:00-18:00, this restaurant is very well-rated.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a museum located in Manouba, Tunisia, that showcases and preserves Tunisia's military history. The museum is housed in a historic palace, and displays a collection of artifacts and exhibits that tell the story of Tunisia's military from ancient times to the present day. Exhibits focus on military history, with a focus on arms and military equipment. The museum also has a collection of historical documents and photographs.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3290,14 +4661,68 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great museum, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from, including Musee and Attraction touristique. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>**Musée National Militaire**
+Located in Manouba, Musée National Militaire is a fascinating destination that showcases the rich military history of Tunisia. Nestled amidst the grandeur of the Habib Bourguiba Palace, it boasts a comprehensive collection of weaponry, uniforms, and artifacts that narrate the country's military past from ancient times to contemporary conflicts. Open from 9 am to 4 pm daily, the museum provides a unique glimpse into the country's defense and heritage. Visitors can delve into the history of military campaigns, explore the architectural splendor of the palace, and discover the stories of Tunisia's brave soldiers.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Manouba is the top-rated Musee National Militaire located, offering a range of categories including Musee and Attraction touristique?</t>
+          <t>Day Plan:
+Morning: Explore the historic Mosquée de Manouba, a stunning mosque with a 4.8-star rating.
+Mid-Morning: Visit the Palais Kobbet Ennhas, a renowned historical site and wedding chapel with a 4.3 out of 5 rating.
+Midday: Savory local cuisine at the highly-rated BADI Tunisian restaurant.
+Afternoon: Experience cultural immersion at the Musée National Militaire, a museum rich in military history.
+Evening: Take a relaxing stroll through the scenic gardens of Palais El-Warda, a beautiful park with a 4.5-star rating.
+Night: Indulge in a delicious dinner at Restaurant Habib Pizzaria, known for its delectable pizzas and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Restaurant Habib Pizzaria is a highly-rated restaurant located in the city of Manouba, Tunisia. It is known for its delicious pizzas and friendly service. The restaurant is located at R3FP+C2P Avenue Khaled Ibn El Walid, and its coordinates are (36.817297092048, 10.095003514771).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a remarkable museum located in Manouba, Tunisia, situated at the coordinates (36.809795648325, 10.093575836048). It's a rich repository of military history, featuring an array of exhibits showcasing weapons, uniforms, and other artifacts from various conflicts. Visitors can delve into the rich history of Tunisia's military and gain insights into the nation's role in shaping the region's past.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3403,12 +4828,72 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website or call them at 70 604 018.</t>
+          <t>The Musée National Militaire is a military museum located in Manouba, Tunisia. The museum is housed in a historic palace that was built in the 19th century. The museum's collection includes a variety of military artifacts, including weapons, uniforms, and vehicles. The museum also has a library and a research center.
+The Musée National Militaire is a popular tourist destination. The museum is open to the public from Tuesday to Sunday, from 9:00 AM to 4:00 PM. The museum is closed on Mondays.
+The Musée National Militaire is located at the following address:
+Musee National Militaire
+53 Ave Habib Bourguiba 2010, Tunisia
++216 70 604 018</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly rated tourist attraction with a 4.6 rating, dedicated to all things Musee-related?</t>
+          <t>Day Plan:
+Morning: Exploring Universitaire de La Manouba
+Mid-Morning: Trying local cuisine at Cafe Fethi
+Midday: Visiting Palais Kobbet Ennhas
+Afternoon: Enjoying scenic views at Mosquée de Manouba
+Evening: Experiencing cultural immersion at Musée National Militaire
+Night: Participating in an event at Royale Club</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 9:30am to 11:00pm and is closed on Sundays. It is located at the coordinates (36.812374, 10.0930597).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3514,14 +4999,69 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The Musée National Militaire, located in the heart of Manouba, is a treasure trove of Tunisian military history and culture. Situated in a grand palace, it boasts a remarkable collection of weapons, uniforms, and artifacts that trace the country's rich military heritage from ancient times to modern conflicts. Visitors can explore the museum's various halls and exhibits, each providing insights into the key battles, wars, and personalities that shaped Tunisia's military history. The museum is easily accessible, just a short distance from the city center and offers guided tours for an immersive and educational experience.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated museum (with a rating of 4.6) in Manouba that is dedicated to military history?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Palais Kobbet Ennhas
+Mid-Morning: Trying local cuisine at #3roubi resto
+Midday: Relaxing with a guided tour of Musee National Militaire
+Afternoon: Taking a scenic stroll through Mosquée de Manouba
+Evening: Enjoying a traditional Tunisian dinner at BADI
+Night: Engaging in outdoor activities like stargazing at Manouba football field</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+#3roubi resto is a highly-rated restaurant located in Manouba. The restaurant opens daily from 09:00 am to 11:30 pm, except on Wednesdays when it is closed. The restaurant has a 5.0-star rating on Google Maps and offers a wide variety of dining options. #3roubi resto is known for its delicious food and excellent service. The restaurant is located at R3HQ+3MR, Manouba 2086.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+In Manouba, Tunisia, the Musee National Militaire is located at coordinates (36.809795648325, 10.093575836048). It offers insights into Tunisia's military history through exhibits showcasing weapons and artifacts, and provides tours detailing past conflicts and important figures. The museum is open from 9 AM to 4 PM Tuesday through Sunday, except Mondays.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3627,14 +5167,68 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee,Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The Musée National Militaire in Manouba, Tunisia is a place of great historical significance, showcasing military artifacts, weapons, and uniforms from different eras. Located at the coordinates (36.809795648325, 10.093575836048), the museum is housed in a grand palace-like building and boasts a wide range of exhibits that tell the story of Tunisia's military history. Visitors can explore galleries dedicated to the country's participation in various conflicts, including World War I and II, and gain insights into the development of Tunisia's armed forces over the years. With its informative displays, knowledgeable guides, and convenient location, the Musée National Militaire provides an immersive and educational experience for history buffs and visitors alike.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a top-rated destination with exceptional Musee attractions?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Mosquée de Manouba
+Mid-Morning: Visit the historic Palais Kobbet Ennhas
+Midday: Try local cuisine at the highly-rated Resto Marino
+Afternoon: Take a stroll through the beautiful Campus Universitaire de La Manouba
+Evening: Shop for souvenirs at the local Market
+Night: Relax with a traditional Hammam experience at the local Spa</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+GIOSUE PIZZA is a restaurant located in manouba, Tunisia. It is a 4.4-star rated restaurant with 5 reviews. The restaurant is open from 10:00-22:00 and is closed on no specified days. GIOSUE PIZZA can be contacted at 01 25 076 021.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum located in Manouba, Tunisia, showcasing the military history of the country. It is situated at the coordinates 36.809795648325, 10.093575836048. The museum is open from 9:00 AM to 4:00 PM from Tuesday to Sunday but is closed on Mondays. The phone number to reach the museum is 70 604 018.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3728,12 +5322,67 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Underground workshop located at Q3XQ+7H2 Underground workshop, Manouba. This top-rated destination is perfect for Musee lovers. It's open with a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Underground+workshop/data=!4m7!3m6!1s0x12fd320e86b0e3bf:0xbf7f64309045edda!8m2!3d36.7981292!4d10.0889052!16s%2Fg%2F11f03vv6hl!19sChIJv-Owhg4y_RIR2u1FkDBkf78?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Underground Workshop in Manouba is a museum showcasing Tunisia's rich culture and history. It offers a unique experience, immersing visitors in the traditional crafts and lifestyle of the country. Located at (36.812374, 10.0930597), this highly-rated destination is a must-see for tourists and history enthusiasts alike.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Underground Workshop in Manouba that is popular among Musee enthusiasts and known for its exceptional quality and service?</t>
+          <t>Day Plan:
+Morning: Explore La Manouba University. Walk around the campus and admire the architecture.
+Mid-Morning: Visit the underground workshop. Learn about Tunisia's rich culture and history.
+Midday: Try local cuisine at Resto Marino, a renowned seafood restaurant.
+Afternoon: Relax with a visit to a spa or hotel.
+Evening: Go shopping at souk Manouba, a vibrant and colorful market.
+Night: Head to Station El Gobaa for live music and an authentic Tunisian experience.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+UNO Pizza is a 4.5-star user-rated restaurant located at UNO Pizza, Residence EL Mokhtar, Manouba (36.8150846, 10.0826309) that mainly serves Italian cuisine. It is open 24 hours a day with a link to the featured image: https://lh5.googleusercontent.com/p/AF1QipNj4ThoGFku-9U69NDLrC6hFQBeE_FBHEHAq9Cm=w426-h240-k-no
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Underground Workshop in Manouba is a museum showcasing Tunisia's rich culture and history. It offers a unique experience, immersing visitors in the traditional crafts and lifestyle of the country. Located at (36.812374, 10.0930597), this highly-rated destination is a must-see for tourists and history enthusiasts alike.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3839,12 +5488,69 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>Musee National Militaire is a remarkable museum located in Manouba, Tunisia, situated at the coordinates (36.809795648325, 10.093575836048). It's a rich repository of military history, featuring an array of exhibits showcasing weapons, uniforms, and other artifacts from various conflicts. Visitors can delve into the rich history of Tunisia's military and gain insights into the nation's role in shaping the region's past.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated top destination for Musée lovers in Manouba, featuring various attractions?</t>
+          <t>Day Plan:
+Morning: Visit the stunning Mosquée de Manouba, immersing yourself in its spiritual atmosphere.
+Mid-Morning: Explore the cultural heritage of Manouba by taking a guided tour of Musee National Militaire.
+Midday: Tantalize your taste buds with a satisfying lunch at the highly-rated BADI restaurant, savoring the authentic flavors of Tunisian cuisine.
+Afternoon: Explore the vast Universitaire de La Manouba, taking in the serene atmosphere of the campus.
+Evening: Visit STREET 24 Mannouba for a casual dinner, indulging in their delectable fast food options.
+Night: Experience the vibrant nightlife at La_Granja_by_saf, enjoying live music and mingling with locals.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Patisserie douiri is a restaurant located in Manouba (coordinates: 36.812374, 10.0930597). Rated 4.7 stars, it offers a range of dining options and has received positive reviews from customers. The restaurant is open from 09:00 to 19:45 and is closed on []. To make a reservation or for more information, call 23 134 544.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a museum in Manouba, Tunisia, located at 36.809795648325, 10.093575836048. It receives 4.6 rating out of 5 from its 140 reviews and is open from 09:00-16:00 every day except Monday. The museum focuses on military history, with exhibits on weapons, wars, and the history of Tunisia. The museum is housed in a palace and is known for its architecture.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3950,12 +5656,69 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a fascinating museum, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for history buffs and offers a range of exhibits to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The Musee National Militaire is a museum located in Manouba, Tunisia, showcasing the military history of the country. It is situated at the coordinates 36.809795648325, 10.093575836048. The museum is open from 9:00 AM to 4:00 PM from Tuesday to Sunday but is closed on Mondays. The phone number to reach the museum is 70 604 018.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Which highly-rated museum in Manouba, Tunisia, caters to history enthusiasts and is recognized for its captivating exhibits?</t>
+          <t>Day Plan:
+Morning: Visit Mosquée de Manouba for a spiritual start to the day.
+Mid-Morning: Explore the Musée National Militaire to delve into Tunisia's military history.
+Midday: Indulge in a local culinary experience at BADI, known for its authentic Tunisian cuisine.
+Afternoon: Engage in outdoor activities at Manouba football field, such as playing soccer or simply enjoying the fresh air.
+Evening: Take a guided tour of Palais Kobbet Ennhas, a historical site with stunning architecture.
+Night: Relax with a tranquil spa experience at a local hotel or spa, rejuvenating for the next day.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+GIOSUE PIZZA is a 4.4-rated restaurant located at route Oued ellil km 7 Manouba, 2010 with GPS coordinates (36.8037861, 10.0653004). The restaurant serves Italian dish and is opened on a daily basis from 10:00 to 22:00. For more information, visit its website at https://www.instagram.com/giosue_pizza/
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4061,12 +5824,73 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, call them at 70 604 018.</t>
+          <t>The Musee National Militaire in Manouba, Tunisia, is a museum dedicated to military history. It is situated on Habib Bourguiba Avenue and has a rating of 4.6 based on 140 reviews. The museum is open from 9:00 AM to 4:00 PM every day except Mondays. Notable aspects of the museum include:
+- Exhibits on military history, including weapons, uniforms, and historical artifacts
+- A focus on the history of the Tunisian military
+- A collection of military vehicles and artillery
+- Guided tours available
+- A central location in the city</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where is a highly rated museum in Manouba that offers a range of tourist attractions and has a 4.6 rating?</t>
+          <t>Day Plan:
+Morning: Explore Universitaire de La Manouba, a renowned university with a beautiful campus.
+Mid-Morning: Visit Mosquée de Manouba, a stunning mosque with a 4.8-star rating, and immerse yourself in its spiritual atmosphere.
+Midday: Try local cuisine at Resto Marino, a renowned seafood restaurant with a perfect 5.0 rating.
+Afternoon: Take a scenic walk or bike ride in the Parc de La Manouba, enjoying the lush greenery and tranquil atmosphere.
+Evening: Experience cultural immersion at Palais Kobbet Ennhas, a historical site and wedding chapel with a 4.3-star rating.
+Night: Relax with a traditional hammam experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+UNO Pizza is a 4.5-star user-rated restaurant located at UNO Pizza, Residence EL Mokhtar, Manouba (36.8150846, 10.0826309) that mainly serves Italian cuisine. It is open 24 hours a day with a link to the featured image: https://lh5.googleusercontent.com/p/AF1QipNj4ThoGFku-9U69NDLrC6hFQBeE_FBHEHAq9Cm=w426-h240-k-no
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire houses a collection of military artifacts and documents telling the story of Tunisia's military past. Housed in a grand palace, the museum features displays on various wars and conflicts, weapons, and military history. Guided tours are available to provide insights into the significance of the exhibits.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4172,12 +5996,72 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website or call them at 70 604 018.</t>
+          <t>The Musée National Militaire, located at 53 Ave Habib Bourguiba, Manouba, is a military museum in Tunisia. It showcases the military history of the country, displaying a collection of weapons, uniforms, and other artifacts. The museum is a popular tourist destination, with a 4.6-star rating based on 140 reviews.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>What top-rated destination for Musée lovers can be found in Manouba, offering a variety of attractions and is open from 09:00-16:00, except on Mondays?</t>
+          <t>Day Plan:
+Morning: Explore the historical Palais Kobbet Ennhas, a stunning venue for weddings and events.
+Mid-Morning: Indulge in local cuisine at BADI, a highly-rated Tunisian restaurant known for its authentic flavors.
+Midday: Visit the Musee National Militaire to delve into Tunisia's military history and witness fascinating exhibits.
+Afternoon: Take a leisurely stroll through the bustling market, La_Granja_by_saf, offering a vibrant array of local products.
+Evening: Join the locals for a football match at the Manouba football field, immersing yourself in the city's sporting spirit.
+Night: Unwind and relax at Cafeteria Walid, enjoying delicious food and beverages while you recount the day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Restaurant Habib pizzaria is located in Manouba, Tunisia. It is a restaurant that offers pizzas. The restaurant is located at the coordinates (36.817297092048, 10.095003514771).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire in Manouba, Tunisia, is a museum dedicated to military history. It is situated on Habib Bourguiba Avenue and has a rating of 4.6 based on 140 reviews. The museum is open from 9:00 AM to 4:00 PM every day except Mondays. Notable aspects of the museum include:
+- Exhibits on military history, including weapons, uniforms, and historical artifacts
+- A focus on the history of the Tunisian military
+- A collection of military vehicles and artillery
+- Guided tours available
+- A central location in the city
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4279,14 +6163,68 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a religious place to visit, check out Mosquee de Manouba located at Mosquee de Manouba, jm` mnwb@ lm`mwr, Manouba 2010. 
-This top-rated destination is perfect for Mosquee lovers. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 04:00-21:30. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+de+Manouba/data=!4m7!3m6!1s0x12fd327201472843:0x5f7fb685e3b32ff7!8m2!3d36.808589!4d10.0916236!16s%2Fg%2F11fy4tkk37!19sChIJQyhHAXIy_RIR9y-z44W2f18?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated religious destination in Manouba, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the historical and architectural beauty of Palais Kobbet Ennhas.
+Mid-Morning: Take a guided tour of Musée National Militaire to learn about Tunisia's military history.
+Midday: Try local cuisine at the renowned seafood restaurant Resto Marino, known for its perfect rating.
+Afternoon: Visit Mosquée de Manouba, a stunning mosque with a 4.8-star rating, and immerse yourself in its spiritual atmosphere.
+Evening: Engage in outdoor activities like jogging or cycling at Parc de Manouba, a popular green space with scenic views.
+Night: Experience cultural immersion at La_Granja_by_saf, a family restaurant offering a variety of dishes and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+D &amp; M Pizza Feu De Bois is a 4-star restaurant located in manouba, Tunisia. It has been reviewed 25 times and is open from 10:00 AM to 00:00 AM. You can contact them by phone at 50 413 004.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a museum in Manouba, Tunisia, located at 36.809795648325, 10.093575836048. It receives 4.6 rating out of 5 from its 140 reviews and is open from 09:00-16:00 every day except Monday. The museum focuses on military history, with exhibits on weapons, wars, and the history of Tunisia. The museum is housed in a palace and is known for its architecture.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4380,15 +6318,68 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Manouba located at R32J+F63 Manouba, Terrain, Manouba 1091. 
-This top-rated destination is perfect for Terrain de football lovers and offers a range of Terrain de football to choose from. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.812374, 10.0930597.</t>
+          <t>The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly rated (4.0) destination that caters to Terrain de football enthusiasts with a wide selection of options?</t>
+          <t>Day Plan:
+Morning: Exploring Mosquée de Manouba
+Mid-Morning: Trying local cuisine at GIOSUE PIZZA
+Midday: Visiting Palais Kobbet Ennhas
+Afternoon: Enjoying a relaxing walk at Parc de Manouba
+Evening: Participating in a cooking class at CAFE'IN
+Night: Experiencing cultural immersion at Musée National Militaire</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+GIOSUE PIZZA is a restaurant located in manouba, Tunisia. It is a 4.4-star rated restaurant with 5 reviews. The restaurant is open from 10:00-22:00 and is closed on no specified days. GIOSUE PIZZA can be contacted at 01 25 076 021.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a museum in Manouba, Tunisia, located at 36.809795648325, 10.093575836048. It receives 4.6 rating out of 5 from its 140 reviews and is open from 09:00-16:00 every day except Monday. The museum focuses on military history, with exhibits on weapons, wars, and the history of Tunisia. The museum is housed in a palace and is known for its architecture.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4482,16 +6473,68 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Terre Agricole located at Terre Agricole, Manouba. 
-This top-rated destination is perfect for Agricultural lovers and offers a range of Agricultural to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.812374, 10.0930597. 
-For more details, visit their link at https://www.google.com/maps/place/Terre+Agricole/data=!4m7!3m6!1s0x12fd325d368cd7b9:0xefd909627accae38!8m2!3d36.8134071!4d10.1048697!16s%2Fg%2F11g_jklxv!19sChIJudeMNl0y_RIROK7MemIJ2e8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated agricultural destination with top-notch reviews and precise GPS coordinates in Manouba?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Palais El-Warda
+Mid-Morning: Trying local cuisine at BADI, a highly-rated Tunisian restaurant.
+Midday: Visiting the magnificent Mosquée de Manouba, a stunning mosque with a 4.8-star rating.
+Afternoon: Indulging in shopping at La_Granja_by_saf, a Restaurant familial with a 4.1 rating based on 22 reviews.
+Evening: Enjoying a cultural immersion at the Musée National Militaire, a treasure trove of Tunisian military history and culture.
+Night: Relaxing with a peaceful walk in the serene Parc du Belvédère, offering breathtaking views of the city.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+UNO pizza is a restaurant located in Manouba, Tunisia. It is open 24/7 and offers a wide variety of dishes, including pizza, pasta, and salads. The restaurant is located at the following coordinates: 36.8150846, 10.0826309.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire, located in the heart of Manouba, is a treasure trove of Tunisian military history and culture. Situated in a grand palace, it boasts a remarkable collection of weapons, uniforms, and artifacts that trace the country's rich military heritage from ancient times to modern conflicts. Visitors can explore the museum's various halls and exhibits, each providing insights into the key battles, wars, and personalities that shaped Tunisia's military history. The museum is easily accessible, just a short distance from the city center and offers guided tours for an immersive and educational experience.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4591,10 +6634,70 @@
           <t>manouba</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where is a place that offers an enigmatic and unique experience?</t>
+          <t>Day Plan:
+Morning: Explore the historic Palais Kobbet Ennhas for its architectural charm and grand wedding chapel.
+Mid-Morning: Visit the Mosquée de Manouba to immerse in its spiritual atmosphere and admire its serene architecture.
+Midday: Indulge in an authentic Tunisian dining experience at BADI, known for its delicious cuisine and traditional ambiance.
+Afternoon: Explore the renowned Musee National Militaire to gain insights into Tunisia's military history and appreciate its impressive collection.
+Evening: Take a stroll through La_Granja_by_saf, a charming neighborhood known for its local restaurants and shops.
+Night: Enjoy a relaxing evening at the luxurious Spa des Thermes de Carthage for rejuvenation and tranquility.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Chez Salih Restaurant is a highly-rated restaurant located in Manouba, Tunisia. It offers a range of cuisines and has received positive reviews from customers. The restaurant is situated at coordinates (36.814559184394, 10.099520008126), making it easily accessible to visitors.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Located in Manouba, Musee National Militaire is a historical museum that showcases Tunisia's military history. It houses a vast collection of arms, uniforms, and war memorabilia, offering visitors an immersive experience into the country's past conflicts. The museum's unique setting within a former palace adds to its architectural charm.
+The museum hosts guided tours that provide in-depth insights into the history of Tunisian military and the significance of the exhibits. With its convenient location and educational offerings, Musee National Militaire is an ideal destination for history buffs and anyone interested in exploring Tunisia's cultural heritage.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4700,12 +6803,67 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a delectable dining experience, visit D &amp; M Pizza Feu De Bois. Located at Poste Garde National, this top-rated restaurant is a haven for food enthusiasts. With a rating of 4.0, it's a must-try spot. It's open from 10:00-00:00 during the week. To get there, use these GPS coordinates: 53.390000606075, -6.268599257961. For more details, visit their website or call them at 50 413 004.</t>
+          <t>D &amp; M Pizza Feu De Bois is a 4-star restaurant located in manouba, Tunisia. It has been reviewed 25 times and is open from 10:00 AM to 00:00 AM. You can contact them by phone at 50 413 004.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated dining destination in Manouba known for its delectable flavors?</t>
+          <t>Day Plan:
+Morning: Explore the historical Palais Kobbet Ennhas, a magnificent venue for ceremonies and events.
+Mid-Morning: Immerse yourself in the serene atmosphere of Mosquée de Manouba, a stunning spiritual landmark open from 4:00 AM to 9:30 PM.
+Midday: Indulge in authentic Tunisian cuisine at BADI, a highly-rated restaurant offering a genuine dining experience.
+Afternoon: Take a scenic walk through Parc de la Manouba, enjoying the beautiful greenery and tranquil ambiance.
+Evening: Head to Resto Marino for a delightful seafood dinner, savoring the flavors of the region's culinary delights.
+Night: Experience the local nightlife at 2M, a pizzeria renowned for its delicious pizzas and lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+UNO pizza is a restaurant located in Manouba, Tunisia. It is open 24/7 and offers a wide variety of dishes, including pizza, pasta, and salads. The restaurant is located at the following coordinates: 36.8150846, 10.0826309.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Military National Museum of Manouba is located in Tunisia and proposes a historical journey through military history. This attraction offers many insights into the country's military history and displays ancient weaponry, uniforms, and vehicles. It is a great place to learn about Tunisia's military history and see some impressive artifacts. The museum is also located in a beautiful palace, which is worth a visit in its own right.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4807,12 +6965,67 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated family restaurant, check out La_Granja_by_saf located at Rue De La Lumiere. This popular destination has received a rating of 4.1 and offers a range of dining options. To make a reservation or for more details, call them at 20 101 001.</t>
+          <t>La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly rated family restaurant known for its diverse dining options and excellent reputation?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Mosquée de Manouba, known for its spiritual atmosphere.
+Mid-Morning: Visit the enchanting Palais Kobbet Ennhas, a historical site with magnificent architecture perfect for capturing stunning photos.
+Midday: Satisfy your taste buds with authentic Tunisian cuisine at the highly-rated BADI restaurant. Relish the flavors and immerse yourself in the local culinary scene.
+Afternoon: Take a guided tour of the Military National Museum of Manouba to delve into the country's military history, showcasing ancient weaponry and uniforms.
+Evening: Enjoy a leisurely stroll through the Medina of Tunis, a vibrant marketplace offering a diverse range of souvenirs, handicrafts, and local delicacies.
+Night: Wind down the day with a relaxing evening at the Cafeteria Walid. Savor the delicious food and beverages while soaking up the friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Djerba Resto is a highly rated restaurant located in Manouba, Tunisia. The restaurant offers a variety of dishes, and has received positive reviews from customers. It is located at the following coordinates: (36.854656307718, 9.938288999294).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Military National Museum of Manouba is located in Tunisia and proposes a historical journey through military history. This attraction offers many insights into the country's military history and displays ancient weaponry, uniforms, and vehicles. It is a great place to learn about Tunisia's military history and see some impressive artifacts. The museum is also located in a beautiful palace, which is worth a visit in its own right.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4914,12 +7127,67 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out FOOD 707 located at R444+J44 FOOD 707, Ibn Abi Dhief, Manouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at or call them at 58 042 228.</t>
+          <t>FOOD 707 is a 4.1-rated restaurant in manouba, Tunisia located at (36.812374, 10.0930597). It specializes in pizza and offers a variety of other dining options.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>In Manouba, where can you find a highly rated restaurant destination with a variety of dining options, making it a must-visit spot with GPS coordinates of 36.812374, 10.0930597?</t>
+          <t>Day Plan:
+Morning: Explore the stunning Mosquée de Manouba, an iconic religious site with 4.8-star ratings. Immerse in its spiritual atmosphere and admire its architectural beauty.
+Mid-Morning: Visit the Musée National Militaire, showcasing Tunisia's military history through various displays. Discover fascinating artifacts and learn about the country's rich heritage.
+Midday: Delve into local culinary delights at 2M, a highly-rated pizzeria, for a delectable lunch. Relish the authentic flavors of Tunisian cuisine.
+Afternoon: Embark on an educational tour of Universitaire de La Manouba, a renowned university. Explore its campus, interact with students, and gain insights into Tunisia's academic landscape.
+Evening: Enjoy a peaceful stroll through the picturesque Parc de Manouba, offering serene ambiance, lush greenery, and scenic trails. Unwind and soak in the natural beauty.
+Night: Experience traditional Tunisian culture at BADI, a 5-star-rated restaurant. Savor the authentic ambiance, indulge in delicious cuisine, and create unforgettable memories.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+UNO pizza is a restaurant located in Manouba, Tunisia. It is open 24/7 and offers a wide variety of dishes, including pizza, pasta, and salads. The restaurant is located at the following coordinates: 36.8150846, 10.0826309.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire, located at 53 Ave Habib Bourguiba, Manouba, is a military museum in Tunisia. It showcases the military history of the country, displaying a collection of weapons, uniforms, and other artifacts. The museum is a popular tourist destination, with a 4.6-star rating based on 140 reviews.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5025,12 +7293,69 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Mamma mia located at R37R+PRQ Mamma mia, Manouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Mamma+mia/data=!4m7!3m6!1s0x12fd326554f7dce7:0x9fa8415bf195107!8m2!3d36.8143391!4d10.09212!16s%2Fg%2F11csrvvy8b!19sChIJ59z3VGUy_RIRB1EZvxWE-gk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 413 004.</t>
+          <t>Located in Manouba at the coordinates (36.812374, 10.0930597), Mamma mia is a restaurant that offers a variety of dishes, including pizza. The restaurant has received positive reviews from customers, with an average rating of 4.2.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in Manouba can you experience a top-rated dining destination with a 4.2 rating, offering a variety of restaurant options perfect for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Universitaire de La Manouba
+Mid-Morning: Visit Palais Kobbet Ennhas
+Midday: Try local cuisine at PSP Ndeg D 10
+Afternoon: Enjoy scenic views at Mosquée de Manouba
+Evening: Relax with a guided tour of Musee National Militaire
+Night: Experience cultural immersion at Gare sncft La Manouba</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has received positive reviews, praising its friendly staff and delicious food. It is located at (36.812374, 10.0930597) and is open from 09:30-23:00.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a museum in Manouba, Tunisia, located at 36.809795648325, 10.093575836048. It receives 4.6 rating out of 5 from its 140 reviews and is open from 09:00-16:00 every day except Monday. The museum focuses on military history, with exhibits on weapons, wars, and the history of Tunisia. The museum is housed in a palace and is known for its architecture.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5136,12 +7461,68 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated spot for Restauration rapide, Rapido is the perfect choice. Located at R35V+W82 Rapido, Ave Habib Bourguiba, this popular destination has a rating of 4.3 out of 5. It's open 24 hours a day, so you can satisfy your cravings anytime. For more information, visit their website or call them at 50 413 004.</t>
+          <t>Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated and conveniently located Restauration rapide spot open 24/7 in Manouba?</t>
+          <t>Day Plan:
+Morning: Explore the stunning Mosquée de Manouba, immersing yourself in its spiritual atmosphere.
+Mid-Morning: Visit the Musee National Militaire to delve into the rich military history of Tunisia.
+Midday: Delight in local Tunisian cuisine at the renowned BADI restaurant, known for its authentic ambiance and flavors.
+Afternoon: Engage in outdoor activities at the Manouba football field, enjoying a friendly football match or simply basking in the lively atmosphere.
+Evening: Experience cultural immersion at the Palais Kobbet Ennhas, admiring the magnificent architecture and learning about its historical significance.
+Night: Conclude the day with a relaxing evening at the Cafeteria Walid, savoring delicious food and beverages while enjoying the friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+GIOSUE PIZZA is a restaurant located in manouba, Tunisia. It is a 4.4-star rated restaurant with 5 reviews. The restaurant is open from 10:00-22:00 and is closed on no specified days. GIOSUE PIZZA can be contacted at 01 25 076 021.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum in Manouba, Tunisia, dedicated to military history. It is located in a palace that was built in 1984 and houses a collection of weapons, uniforms, and other artifacts from Tunisian military history. The museum also offers guided tours of its exhibits.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5247,12 +7628,67 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out pizzeria Amigo located at Rue el Qods, Manouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.8115842, 10.1102748. For more details, visit their website or call them at 58 551 482.</t>
+          <t>Pizzeria Amigo is a restaurant located in manouba, Tunisia, at (36.8115842, 10.1102748). It offers a variety of pizzas and other dishes, and has a rating of 4.5 out of 5 stars based on 11 reviews. The restaurant is open 24 hours a day and can be contacted at 58 551 482.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Manouba that offers a diverse selection of dining options and is open around the clock?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina of Manouba and discover its vibrant streets.
+Mid-Morning: Visit the Musee National Militaire to learn about Tunisia's military history.
+Midday: Try local cuisine at the highly-rated BADI restaurant, known for its authentic Tunisian dishes.
+Afternoon: Relax in the scenic Mosquée de Manouba and admire its stunning architecture.
+Evening: Enjoy the lively atmosphere at CAFE'IN, a cozy café offering a variety of coffee drinks.
+Night: Experience cultural immersion at the Palais El-Warda metro station, a popular tourist destination with easy access to the city center.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Tooka Restaurant, located at 24 Habib bourguiba in Manouba (Tunisia), offers a delightful culinary experience with a 4.9-star rating based on 8 reviews. With a convenient website (https://tooka.tn/) and phone number (21 729 728), reservations are made easy. The featured image showcases the vibrant ambiance of the restaurant, while the workday timings of 10:00-23:00 ensure flexibility for diners. The coordinates (36.809955772971, 10.093606997312) provide precise location details. Discover the flavors of Tooka Restaurant today!
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is located in Manouba, and offers a comprehensive history of military conflicts in Tunisia. This building was built in 1989 over an area of 12 hectares and has been open to the public since 1991. The collections depict the military apparatus of the Tunisian army over the last two centuries, showcasing weapons, costumes, decorations, and military equipment. Additionally, the museum hosts a variety of cultural events, such as exhibitions and conferences.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5358,14 +7794,68 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out O BNIN located at 40 rue des travailleurs, 34 N7, Manouba.
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Restauration rapide to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-18:00, but closed on mercredi, dimanche. To get there, use these GPS coordinates: 36.815333497607, 10.102816936674. For more details, visit their website at  or call them at 22 089 000.</t>
+          <t>O BNIN is a restaurant located in Manouba, Tunisia. It offers a variety of dishes at a 5-star rating based on 9 reviews. It is on 40 rue des travailleurs, 34 N7, Manouba. Open from Monday to Saturday from 07:00-18:00, this restaurant is very well-rated.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>If you're in Manouba seeking a top-rated dining experience with a diverse menu, where would you go and why?</t>
+          <t>Day Plan:
+Morning: Explore the stunning Mosquée de Manouba, renowned for its spiritual atmosphere.
+Mid-Morning: Indulge in the authentic Tunisian cuisine at BADI, known for its exceptional ambiance and authentic flavors.
+Midday: Visit the Palais Kobbet Ennhas, a historical site and wedding chapel offering a glimpse into Manouba's rich heritage.
+Afternoon: Enjoy a leisurely walk through the Manouba Park, taking in the fresh air and scenic surroundings.
+Evening: Experience the vibrant local culture at La_Granja_by_saf, featuring a delightful menu and warm hospitality.
+Night: Immerse yourself in the energetic atmosphere of the Royale Club, a top-rated weightlifting gym known for its supportive community.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+FOOD 707 is a 4.1-rated restaurant in manouba, Tunisia located at (36.812374, 10.0930597). It specializes in pizza and offers a variety of other dining options.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire houses a collection of military artifacts and documents telling the story of Tunisia's military past. Housed in a grand palace, the museum features displays on various wars and conflicts, weapons, and military history. Guided tours are available to provide insights into the significance of the exhibits.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5467,14 +7957,81 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great Cafeteria, check out Cafeteria Walid on Ave Habib Bourguiba.
-This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria to choose from.
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-20:00, but closed on none. To get there, use these GPS coordinates: 36.812266797837, 10.09577907882.</t>
+          <t>Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly-rated Cafeteria named Cafeteria Walid that is known for its exceptional Cafeteria offerings?</t>
+          <t>Day Plan:
+Morning:
+- Explore Musée National Militaire to delve into Tunisia's military history.
+- Take a guided tour of Palais Kobbet Ennhas, a stunning historical site and wedding chapel.
+Mid-Morning:
+- Visit Mosquée de Manouba, a renowned spiritual landmark with a serene atmosphere.
+- Enjoy a relaxing coffee break at CAFE'IN, a cozy café with a trendy ambiance.
+Midday:
+- Indulge in a delightful seafood culinary experience at Resto Marino, a top-rated seafood restaurant.
+- Afterward, explore the campus of Universitaire de La Manouba for its academic atmosphere and scenic surroundings.
+Afternoon:
+- Participate in a weightlifting session at Royale Club, a well-equipped gym.
+- Engage in outdoor activities like football at the Manouba football field.
+Evening:
+- Experience the local cuisine at Belgacem, a restaurant with a welcoming ambiance and a variety of dishes.
+- Shop for agricultural products and services at Terre Agricole, a 5-star rated agricultural place.
+Night:
+- Enjoy a fast food meal at STREET 24 Mannouba, known for its delicious offerings.
+- Relax with a drink at Cafeteria Walid, a popular spot with friendly staff and tasty beverages.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Belgacem is a restaurant located in Manouba, Tunisia. It scored 4.0 out of 5 with 1 review. It offers a variety of dishes in a friendly and welcoming atmosphere. The restaurant can be contacted by phone at +24 244 392.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5584,12 +8141,67 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Tooka restaurant located at Tooka restaurant, 24 Habib bourguiba, Manouba 2010. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 36.809955772971, 10.093606997312. For more details, visit their website at https://tooka.tn/ or call them at 21 729 728.</t>
+          <t>Tooka Restaurant, located at 24 Habib bourguiba in Manouba (Tunisia), offers a delightful culinary experience with a 4.9-star rating based on 8 reviews. With a convenient website (https://tooka.tn/) and phone number (21 729 728), reservations are made easy. The featured image showcases the vibrant ambiance of the restaurant, while the workday timings of 10:00-23:00 ensure flexibility for diners. The coordinates (36.809955772971, 10.093606997312) provide precise location details. Discover the flavors of Tooka Restaurant today!</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly-rated restaurant called Tooka that's perfect for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Mosquée de Manouba
+Mid-Morning: Tasting local cuisine at BADI
+Midday: Visiting Palais Kobbet Ennhas
+Afternoon: Taking a guided tour of the National Military Museum
+Evening: Relaxing with a spa treatment at a local hotel
+Night: Enjoying scenic views at Terre Agricole</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The National Military Museum is located in Manouba, Tunisia, showcasing the country's military history. Situated at 53 Habib Bourguiba Avenue, it features exhibits on military achievements and conflicts. The museum is open from 9:00 AM to 4:00 PM daily, except for Mondays, and admission typically requires a fee. It is renowned for its collection of weapons, military equipment, and historical artifacts.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5691,12 +8303,69 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>In manouba, Pizzaria Charlot is a popular Restaurant, located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe, Manouba. With a superb rating of 4.6, it's a great place for Restaurant enthusiasts. Operating hours are from 07:30-00:00 on all days of the week. To get there, simply use the GPS coordinates: (36.812374, 10.0930597).</t>
+          <t>Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with superb ambience and convenient location in Manouba?</t>
+          <t>Day Plan:
+Morning: Exploring the stunning Mosquée de Manouba, immersing in its spiritual atmosphere and architectural beauty.
+Mid-Morning: Indulge in local cuisine at O BNIN, a highly-rated restaurant offering a variety of dishes.
+Midday: Visit the Musée National Militaire to delve into the rich military history of Tunisia, showcasing weaponry and artifacts from ancient to contemporary times.
+Afternoon: Engage in outdoor activities at the Manouba football field, enjoying a game of football or simply soaking up the atmosphere.
+Evening: Experience cultural immersion at Palais Kobbet Ennhas, a historical wedding chapel with a majestic ambiance.
+Night: Wind down with a relaxing and delicious dinner at Restaurant roufa, known for its exceptional fast food offerings.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+O BNIN is a restaurant located in Manouba, Tunisia. It offers a variety of dishes at a 5-star rating based on 9 reviews. It is on 40 rue des travailleurs, 34 N7, Manouba. Open from Monday to Saturday from 07:00-18:00, this restaurant is very well-rated.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+**Musée National Militaire**
+Located in Manouba, Musée National Militaire is a fascinating destination that showcases the rich military history of Tunisia. Nestled amidst the grandeur of the Habib Bourguiba Palace, it boasts a comprehensive collection of weaponry, uniforms, and artifacts that narrate the country's military past from ancient times to contemporary conflicts. Open from 9 am to 4 pm daily, the museum provides a unique glimpse into the country's defense and heritage. Visitors can delve into the history of military campaigns, explore the architectural splendor of the palace, and discover the stories of Tunisia's brave soldiers.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5802,12 +8471,67 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something to eat, check out UNO Pizza located at Residence EL Mokhtar, Manouba. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.8150846, 10.0826309. For more details, visit their link at https://www.google.com/maps/place/UNO+Pizza/data=!4m7!3m6!1s0x12fd2daaa2e4d363:0xf5db352f26bf40d3!8m2!3d36.8174544!4d10.0797314!16s%2Fg%2F11f5tgvbbm!19sChIJY9Pkoqot_RIR00C_Ji812_U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 672 963.</t>
+          <t>UNO Pizza is a 4.5-star user-rated restaurant located at UNO Pizza, Residence EL Mokhtar, Manouba (36.8150846, 10.0826309) that mainly serves Italian cuisine. It is open 24 hours a day with a link to the featured image: https://lh5.googleusercontent.com/p/AF1QipNj4ThoGFku-9U69NDLrC6hFQBeE_FBHEHAq9Cm=w426-h240-k-no</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>What highly-rated dining destination in Manouba, open 24 hours a day, offers a perfect culinary experience for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the heart of Manouba by visiting the Universitaire de La Manouba, a renowned university. Take a guided tour of the campus and learn about its academic offerings.
+Mid-Morning: Visit the Mosquée de Manouba, which boasts a 4.8-star rating and offers a serene and spiritual atmosphere. Immerse yourself in the beauty of Islamic architecture and learn about the mosque's history.
+Midday: Try authentic Tunisian cuisine at Resto Marino, a highly-rated seafood restaurant with a perfect 5.0 rating. Indulge in fresh and flavorful seafood dishes.
+Afternoon: Explore Palais Kobbet Ennhas, a historical site and wedding chapel. This magnificent space offers the perfect backdrop for a memorable afternoon.
+Evening: Experience the bustling atmosphere of the market in Rapido. Immerse yourself in the vibrant local culture and enjoy delicious street food options.
+Night: Enjoy a relaxing evening at Cafeteria Walid. Known for its friendly staff and delicious food, this cafeteria offers a cozy ambiance to unwind and reflect on the day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Chez Salih Restaurant is a highly-rated restaurant located in Manouba, Tunisia. It offers a range of cuisines and has received positive reviews from customers. The restaurant is situated at coordinates (36.814559184394, 10.099520008126), making it easily accessible to visitors.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a remarkable museum located in Manouba, Tunisia, situated at the coordinates (36.809795648325, 10.093575836048). It's a rich repository of military history, featuring an array of exhibits showcasing weapons, uniforms, and other artifacts from various conflicts. Visitors can delve into the rich history of Tunisia's military and gain insights into the nation's role in shaping the region's past.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5909,14 +8633,73 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Pizzeria, check out Pizzeria Gourmet located at R453+974 Pizzeria Gourmet, Manouba. 
-This top-rated destination is perfect for Pizzeria lovers.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 36.8084465, 10.1034734.</t>
+          <t>Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Pizzeria with GPS coordinates 36.8084465, 10.1034734 in the Manouba area?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic Palais Kobbet Ennhas, a beautiful wedding chapel with a fascinating past.
+Mid-Morning:
+- Try local cuisine at **wld lby` n`ym**, a highly-rated restaurant offering traditional Tunisian dishes.
+Midday:
+- Visit the Manouba football field and immerse yourself in the local sporting culture by cheering on a game.
+Afternoon:
+- Relax with a rejuvenating spa treatment at a local wellness center.
+Evening:
+- Enjoy scenic views at the picturesque Mosquée de Manouba, a stunning mosque with a rich spiritual atmosphere.
+Night:
+- Experience cultural immersion at the Musee National Militaire, where you can delve into Tunisia's military history.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+**wld lby` n`ym** is a restaurant in **manouba**, Tunisia. Located at coordinates (36.80609228872, 10.095230317719), it offers a variety of dishes and has received a 5-star rating from one reviewer. The restaurant's featured image is available at https://lh5.googleusercontent.com/p/AF1QipNNYty5CIgbIJzmI_8IUuAaO5yn0RdP1Gd55D94=w408-h544-k-no.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire houses a collection of military artifacts and documents telling the story of Tunisia's military past. Housed in a grand palace, the museum features displays on various wars and conflicts, weapons, and military history. Guided tours are available to provide insights into the significance of the exhibits.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6026,15 +8809,68 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a good restaurant, check out GIOSUE PIZZA located at route Oued ellil km 7 Manouba, 2010. 
-This top-rated destination serves a range of dishes and offers a cozy atmosphere for a memorable dining experience. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website 
-at https://www.instagram.com/giosue_pizza/ or call them at 25 076 021.</t>
+          <t>GIOSUE PIZZA is a restaurant located in manouba, Tunisia. It is a 4.4-star rated restaurant with 5 reviews. The restaurant is open from 10:00-22:00 and is closed on no specified days. GIOSUE PIZZA can be contacted at 01 25 076 021.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Manouba with a cozy atmosphere, serving a range of dishes, and offering a memorable dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the historical Palais Kobbet Ennhas
+Mid-Morning: Try local cuisine at BADI, a highly-rated Tunisian restaurant
+Midday: Visit the renowned Musee National Militaire for a glimpse into Tunisia's military history
+Afternoon: Enjoy scenic views at the Mosquée de Manouba and delve into its spiritual atmosphere
+Evening: Engage in outdoor activities at the Manouba football field, perfect for a refreshing break
+Night: Relax with a rejuvenating experience at a spa or hotel, concluding the day with tranquility</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+D &amp; M Pizza Feu De Bois is a 4-star restaurant located in manouba, Tunisia. It has been reviewed 25 times and is open from 10:00 AM to 00:00 AM. You can contact them by phone at 50 413 004.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum located in Manouba, Tunisia, showcasing the military history of the country. It is situated at the coordinates 36.809795648325, 10.093575836048. The museum is open from 9:00 AM to 4:00 PM from Tuesday to Sunday but is closed on Mondays. The phone number to reach the museum is 70 604 018.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6140,14 +8976,67 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out STREET 24 Mannouba located at 24 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.809955772971, 10.093606997312. For more details, visit their website at https://www.facebook.com/Street-24-mannouba-103062681815906/ or call them at 56 481 381.</t>
+          <t>STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant serving Restauration rapide with a 5.0 rating in the Manouba area?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Mosquée de Manouba, immersing yourself in its spiritual atmosphere.
+Mid-Morning: Indulge in local cuisine at BADI, a highly-rated restaurant offering an authentic Tunisian dining experience.
+Midday: Visit the historic Palais Kobbet Ennhas, a magnificent space perfect for organizing ceremonies and events.
+Afternoon: Take a leisurely walk through the scenic Parc de Manouba, enjoying the lush greenery and serene ambiance.
+Evening: Engage in outdoor activities at the Manouba football field, showcasing your athletic prowess or simply enjoying the camaraderie.
+Night: Relax with a pampering session at a local spa, allowing yourself to rejuvenate and recharge.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Resto maya is a highly-rated (5.0) restaurant located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. It is a popular spot among locals and has received positive reviews for its cuisine. Unfortunately, we have no further information regarding the specific dishes offered or the restaurant's ambiance. For more details, we recommend checking their online presence or contacting the establishment directly.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire houses a collection of military artifacts and documents telling the story of Tunisia's military past. Housed in a grand palace, the museum features displays on various wars and conflicts, weapons, and military history. Guided tours are available to provide insights into the significance of the exhibits.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6253,14 +9142,74 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Patisserie douiri located at Q3XR+XCQ Patisserie douiri, Manouba. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-19:45. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website or call them at 23 134 544.</t>
+          <t>Patisserie douiri is a restaurant located in Manouba (coordinates: 36.812374, 10.0930597). Rated 4.7 stars, it offers a range of dining options and has received positive reviews from customers. The restaurant is open from 09:00 to 19:45 and is closed on []. To make a reservation or for more information, call 23 134 544.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly rated destination, perfect for Restaurant lovers, with a rating of 4.7, open daily from 9:00 AM to 7:45 PM?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Palais El-Warda, a metro station offering insights into the local architecture and history.
+**Mid-Morning:**
+- Visit the renowned Musée National Militaire, showcasing Tunisia's rich military heritage through its collection of artifacts and exhibits.
+**Midday:**
+- Savor a delightful meal at BADI, an authentic Tunisian restaurant known for its exceptional cuisine.
+**Afternoon:**
+- Discover the beauty and serenity of Mosquée de Manouba, a majestic mosque open to visitors seeking spiritual immersion.
+**Evening:**
+- Explore the vibrant La_Granja_by_saf, a family restaurant serving a diverse menu and receiving positive reviews for its ambiance.
+**Night:**
+- Relax and unwind at Cafeteria Walid, a local café offering a cozy atmosphere and delicious refreshments.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Resto maya is a highly-rated (5.0) restaurant located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. It is a popular spot among locals and has received positive reviews for its cuisine. Unfortunately, we have no further information regarding the specific dishes offered or the restaurant's ambiance. For more details, we recommend checking their online presence or contacting the establishment directly.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a remarkable museum located in Manouba, Tunisia, situated at the coordinates (36.809795648325, 10.093575836048). It's a rich repository of military history, featuring an array of exhibits showcasing weapons, uniforms, and other artifacts from various conflicts. Visitors can delve into the rich history of Tunisia's military and gain insights into the nation's role in shaping the region's past.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6362,12 +9311,67 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out chez salih restaurant located at 113 Ave Habib Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:15-14:00, but closed on dimanche. To get there, use these GPS coordinates: 36.814559184394, 10.099520008126. For more details, visit their website at https://www.google.com/maps/place/chez+salih+restaurant/data=!4m7!3m6!1s0x12fd3323236ed2ef:0xb4f48e633d6d40cd!8m2!3d36.8145184!4d10.0993433!16s%2Fg%2F11hhz9cl9m!19sChIJ79JuIyMz_RIRzUBtPWOO9LQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Chez Salih Restaurant is a highly-rated restaurant located in Manouba, Tunisia. It offers a range of cuisines and has received positive reviews from customers. The restaurant is situated at coordinates (36.814559184394, 10.099520008126), making it easily accessible to visitors.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a top-rated restaurant with a perfect rating, perfect for restaurant lovers, and offering various categories to choose from?</t>
+          <t>Day Plan:
+Morning: Explore the historic Palais El-Warda metro station, a popular destination with easy access to the city center.
+Mid-Morning: Visit the Musée National Militaire, showcasing Tunisia's rich military history with an astounding collection of artifacts.
+Midday: Try local cuisine at Restaurant Habib pizzaria, a popular spot offering delicious pizzas.
+Afternoon: Enjoy scenic views at Mosquée de Manouba, a stunning mosque with a 4.8-star rating and an inviting spiritual atmosphere.
+Evening: Participate in the lively atmosphere at Station El Gobaa, a highly-rated transport service with a friendly and helpful staff.
+Night: Relax with a movie at a local cinema to unwind and enjoy the evening entertainment.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Restaurant Habib pizzaria is located in Manouba, Tunisia. It is a restaurant that offers pizzas. The restaurant is located at the coordinates (36.817297092048, 10.095003514771).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6473,15 +9477,67 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a restaurant, check out MAC REGAL located on R466+G3C. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-23:30. 
-To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website or call them at 22 648 723.</t>
+          <t>MAC REGAL is a restaurant located in Manouba, Tunisia. It has a rating of 5.0 stars based on 2 reviews and is open from 09:00 to 23:30 daily. The restaurant can be found at the coordinates (36.812374, 10.0930597) and offers a variety of dining options.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>If you are in Manouba and craving a renowned dining experience with a top-rated selection of culinary delights, where can you find the perfect spot?</t>
+          <t>Day Plan:
+Morning: Explore Universitaire de La Manouba, a renowned university in Manouba.
+Mid-Morning: Try local cuisine at Patisserie douiri, a highly-rated restaurant offering a range of dining options.
+Midday: Visit Palais Kobbet Ennhas, a historical site and wedding chapel, to appreciate its magnificent architecture and history.
+Afternoon: Enjoy scenic views at Mosquée de Manouba, a stunning mosque with a peaceful atmosphere.
+Evening: Participate in an event at Palais El-Warda, a metro station with a lively ambiance and entertainment options.
+Night: Experience cultural immersion at Musée National Militaire, a museum showcasing Tunisia's military history and hosting various cultural events.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Patisserie douiri is a restaurant located in Manouba (coordinates: 36.812374, 10.0930597). Rated 4.7 stars, it offers a range of dining options and has received positive reviews from customers. The restaurant is open from 09:00 to 19:45 and is closed on []. To make a reservation or for more information, call 23 134 544.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is located in Manouba, and offers a comprehensive history of military conflicts in Tunisia. This building was built in 1989 over an area of 12 hectares and has been open to the public since 1991. The collections depict the military apparatus of the Tunisian army over the last two centuries, showcasing weapons, costumes, decorations, and military equipment. Additionally, the museum hosts a variety of cultural events, such as exhibitions and conferences.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6575,14 +9631,67 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Restaurant Habib pizzaria located at Avenue Khaled Ibn El Walid, Manouba. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Habib+pizzaria/data=!4m7!3m6!1s0x12fd33af6448d1a5:0xc1cc596d5a6fa3b8!8m2!3d36.8235859!4d10.0850807!16s%2Fg%2F11szkg0tf3!19sChIJpdFIZK8z_RIRuKNvWm1ZzME?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Habib Pizzaria is a highly-rated restaurant located in the city of Manouba, Tunisia. It is known for its delicious pizzas and friendly service. The restaurant is located at R3FP+C2P Avenue Khaled Ibn El Walid, and its coordinates are (36.817297092048, 10.095003514771).</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant specializing in pizza in the city of Manouba?</t>
+          <t>Day Plan:
+Morning: Explore the stunning Mosquée de Manouba, marveling at its intricate architecture and serene atmosphere.
+Mid-Morning: Visit the Palais Kobbet Ennhas, a captivating historical site perfect for capturing the essence of Manouba's rich heritage.
+Midday: Delight your taste buds with an authentic Tunisian dining experience at the highly-rated BADI, savoring the flavors of traditional dishes.
+Afternoon: Immerse yourself in nature's beauty at the Terre Agricole, where you can explore its agricultural offerings and connect with the local landscape.
+Evening: Engage in outdoor activities at the Manouba football field, experiencing the passion and energy of a local football match.
+Night: Wind down the day with a relaxing and rejuvenating experience at a traditional hammam, indulging in the soothing rituals and ancient traditions of Tunisia's bathing culture.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Pizzeria Amigo is a restaurant located in manouba, Tunisia, at (36.8115842, 10.1102748). It offers a variety of pizzas and other dishes, and has a rating of 4.5 out of 5 stars based on 11 reviews. The restaurant is open 24 hours a day and can be contacted at 58 551 482.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Underground Workshop is a museum located in Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It has received a 5.0 rating from a single review.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6676,12 +9785,67 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in Manouba and looking for a quick bite, head over to Restaurant roufa on R3FM+R25. This highly-rated spot specializes in fast food and offers a variety of options to choose from. With a 5.0 rating and positive reviews, it's a must-visit destination. Its GPS coordinates are 36.812374, 10.0930597. For more information, visit their website at [website link] or call them at [phone number].</t>
+          <t>The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated fast food restaurant with GPS coordinates 36.812374, 10.0930597 in Manouba, Tunisia?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historical significance of **Universitaire de La Manouba**.
+**Mid-Morning:** Immerse yourself in the authentic ambiance of **CAFE'IN** for a delicious coffee and cultural experience.
+**Midday:** Delight in the culinary wonders of traditional Tunisian cuisine at the highly-rated **Djerba Resto**.
+**Afternoon:** Visit the **Musée National Militaire** to delve into Tunisia's military history.
+**Evening:** Explore the architectural beauty of **Palais Kobbet Ennhas**, offering stunning views and a glimpse into Manouba's heritage.
+**Night:** Relish the vibrant atmosphere at **La_Granja_by_saf**, savoring the local flavors and enjoying the warm hospitality.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Djerba Resto, located in Manouba (coordinates: 36.854656307718, 9.938288999294), is a restaurant that serves delicious food and has a great ambiance. It's a popular spot for locals and tourists alike, and the staff is always friendly and welcoming. The menu features a variety of dishes, including traditional Tunisian cuisine and international favorites. Djerba Resto is also a great place to relax and enjoy a drink or two with friends.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6779,14 +9943,67 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for somewhere to eat, check out Djerba Resto located at R39R+65H Djerba Resto, Manouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.854656307718, 9.938288999294. For more details, visit their website at  or call them at .</t>
+          <t>Djerba Resto is a highly rated restaurant located in Manouba, Tunisia. The restaurant offers a variety of dishes, and has received positive reviews from customers. It is located at the following coordinates: (36.854656307718, 9.938288999294).</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a wide selection of cuisine options in Manouba?</t>
+          <t>Day Plan:
+Morning: Explore the unique ambiance of **CAFE'IN**, a charming café with a lively atmosphere and delicious coffee options.
+Mid-Morning: Take a short walk to **Chez Salih Restaurant** and savor authentic Tunisian cuisine amidst the warm hospitality.
+Midday: Visit the historic **Palais Kobbet Ennhas**, a stunning architectural masterpiece that offers a glimpse into Tunisia's rich heritage.
+Afternoon: Engage in outdoor activities at the **Manouba football field**, where you can enjoy a friendly game or simply relax and soak up the local atmosphere.
+Evening: Experience the vibrant energy of **Cafeteria Walid** for dinner, where you can indulge in delectable Tunisian dishes and connect with the friendly locals.
+Night: Take a leisurely stroll through the **Mosquée de Manouba**, immersing yourself in its spiritual aura and admiring its intricate architecture.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Chez Salih Restaurant is a highly-rated restaurant located in Manouba, Tunisia. It offers a range of cuisines and has received positive reviews from customers. The restaurant is situated at coordinates (36.814559184394, 10.099520008126), making it easily accessible to visitors.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire houses a collection of military artifacts and documents telling the story of Tunisia's military past. Housed in a grand palace, the museum features displays on various wars and conflicts, weapons, and military history. Guided tours are available to provide insights into the significance of the exhibits.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6892,12 +10109,74 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Looking for a great dining experience in manouba? Look no further than les delices de afef, located at R35X+J59 les delices de afef, Manouba. This top-rated restaurant is open from 08:00-21:00 and offers a range of options for restaurant lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at or call them at 93 896 055.</t>
+          <t>Les Délices de Afef is a restaurant located in Manouba, Tunisia. It is open from 08:00 to 21:00 and is closed on . The restaurant has a rating of 5.0 and is known for its delicious food. It is located at the coordinates (36.812374, 10.0930597).</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dining destination with a 5.0 rating in Manouba, operating from 08:00-21:00?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Palais Kobbet Ennhas, a beautiful wedding chapel with stunning architecture.
+**Mid-Morning:**
+* Visit the Universitaire de La Manouba, a prestigious university with a vibrant campus atmosphere.
+**Midday:**
+* Try local cuisine at the renowned Resto Marino, a seafood restaurant with a perfect 5.0 rating.
+**Afternoon:**
+* Take a leisurely stroll through the Mosquée de Manouba, a sacred and serene mosque with a 4.8-star rating.
+**Evening:**
+* Indulge in authentic Tunisian cuisine at BADI, a highly-rated restaurant with a cozy atmosphere.
+**Night:**
+* Immerse yourself in cultural heritage at the Musee National Militaire, exploring Tunisia's military history through captivating exhibits.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+GIOSUE PIZZA is a restaurant located in manouba, Tunisia. It is a 4.4-star rated restaurant with 5 reviews. The restaurant is open from 10:00-22:00 and is closed on no specified days. GIOSUE PIZZA can be contacted at 01 25 076 021.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum in Manouba, Tunisia, dedicated to military history. It is located in a palace that was built in 1984 and houses a collection of weapons, uniforms, and other artifacts from Tunisian military history. The museum also offers guided tours of its exhibits.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6995,14 +10274,73 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out 2M located at 50 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812947595871, 10.096478131645. For more details, visit their website at https://www.google.com/maps/place/2M/data=!4m7!3m6!1s0x12fd339013ffa2a5:0x956716d5948a0c37!8m2!3d36.8129607!4d10.0964493!16s%2Fg%2F11pts3g444!19sChIJpaL_E5Az_RIRNwyKlNUWZ5U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly-rated Pizzeria destination with a rating of 5.0?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore Mosquée de Manouba: Witness the architectural beauty and spiritual significance of this renowned mosque.
+**Mid-Morning:**
+- Take a guided tour of Musee National Militaire: Delve into the rich military history of Tunisia and discover fascinating exhibits.
+**Midday:**
+- Try local cuisine at Resto Marino: Savor the freshest seafood dishes and enjoy the warm ambiance of this highly-rated restaurant.
+**Afternoon:**
+- Visit Palais Kobbet Ennhas: Admire the stunning architecture of this historical site and explore its magnificent interiors.
+**Evening:**
+- Enjoy a scenic walk or picnic at the Manouba football field: Relax and unwind amidst the tranquil surroundings of this sports facility.
+**Night:**
+- Experience cultural immersion at the Universitaire de La Manouba: Attend a cultural event or performance showcasing the vibrant arts and traditions of the region.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+MAC REGAL is a restaurant located in Manouba, Tunisia. It has a rating of 5.0 stars based on 2 reviews and is open from 09:00 to 23:30 daily. The restaurant can be found at the coordinates (36.812374, 10.0930597) and offers a variety of dining options.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a remarkable museum located in Manouba, Tunisia, situated at the coordinates (36.809795648325, 10.093575836048). It's a rich repository of military history, featuring an array of exhibits showcasing weapons, uniforms, and other artifacts from various conflicts. Visitors can delve into the rich history of Tunisia's military and gain insights into the nation's role in shaping the region's past.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7100,14 +10438,68 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out BADI located at Avenue de L'independance, Manouba. 
-This top-rated destination is perfect for Restaurant tunisien lovers. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/BADI/data=!4m7!3m6!1s0x12fd324bb7be5b03:0x10b2477107f9468e!8m2!3d36.8042416!4d10.1214063!16s%2Fg%2F11g9m5gqqm!19sChIJA1u-t0sy_RIRjkb5B3FHshA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>If you're craving Restaurant tunisien and happen to be in Manouba, what highly-rated destination should you head to for an unforgettable dining experience?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the stunning Mosquée de Manouba (4.8-star rating), immersing yourself in its spiritual ambiance.
+**Mid-Morning:** Visit the Musee National Militaire to delve into Tunisia's military history and admire its collection of artifacts.
+**Midday:** Savor local cuisine at BADI restaurant (5.0-star rating), enjoying the flavors of authentic Tunisian cuisine.
+**Afternoon:** Take a guided tour of Palais Kobbet Ennhas, a historical site and wedding chapel with magnificent architecture and a 4.3-star rating.
+**Evening:** Engage in cultural immersion at the Universitaire de La Manouba campus, discovering its academic and cultural offerings.
+**Night:** Relax and sip on traditional Tunisian tea at Cafeteria Walid (4.2-star rating), soaking up the local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Belgacem is a restaurant located in Manouba, Tunisia. It scored 4.0 out of 5 with 1 review. It offers a variety of dishes in a friendly and welcoming atmosphere. The restaurant can be contacted by phone at +24 244 392.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire houses a collection of military artifacts and documents telling the story of Tunisia's military past. Housed in a grand palace, the museum features displays on various wars and conflicts, weapons, and military history. Guided tours are available to provide insights into the significance of the exhibits.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7209,14 +10601,68 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out PSP Ndeg D 10 located at R3C7+Q3C PSP Ndeg D 10, Unnamed Road, Manouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:30-23:00. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/PSP+N%C2%B0+D+10/data=!4m7!3m6!1s0x12fd2d330ce85cb1:0xd5913c6c2a0e5013!8m2!3d36.8219392!4d10.0626266!16s%2Fg%2F11ff4cll8k!19sChIJsVzoDDMt_RIRE1AOKmw8kdU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 9:30am to 11:00pm and is closed on Sundays. It is located at the coordinates (36.812374, 10.0930597).</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a top-rated destination with a 5.0 rating, perfect for restaurant lovers and offering a range of dining options?</t>
+          <t>Day Plan:
+Morning: Explore the stunning Mosquée de Manouba and immerse yourself in its spiritual atmosphere.
+Mid-Morning: Visit the historic Palais Kobbet Ennhas, marveling at its architecture and magnificent halls.
+Midday: Indulge in a delightful culinary experience at BADI, treating yourself to authentic Tunisian cuisine.
+Afternoon: Engage in an outdoor adventure at the Manouba football field, embracing the local sporting spirit.
+Evening: Shop for local handicrafts and souvenirs at the bustling La_Granja_by_saf market.
+Night: Relish the vibrant nightlife at PSP Ndeg D 10, enjoying live music and delectable dishes.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 9:30am to 11:00pm and is closed on Sundays. It is located at the coordinates (36.812374, 10.0930597).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Military National Museum of Manouba is located in Tunisia and proposes a historical journey through military history. This attraction offers many insights into the country's military history and displays ancient weaponry, uniforms, and vehicles. It is a great place to learn about Tunisia's military history and see some impressive artifacts. The museum is also located in a beautiful palace, which is worth a visit in its own right.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7314,14 +10760,78 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out wld lby` n`ym located at 17 Ave Farhat Hached. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.80609228872, 10.095230317719.</t>
+          <t>**wld lby` n`ym** is a restaurant in **manouba**, Tunisia. Located at coordinates (36.80609228872, 10.095230317719), it offers a variety of dishes and has received a 5-star rating from one reviewer. The restaurant's featured image is available at https://lh5.googleusercontent.com/p/AF1QipNNYty5CIgbIJzmI_8IUuAaO5yn0RdP1Gd55D94=w408-h544-k-no.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (5.0) destination in Manouba that is perfect for Restaurant lovers, located at 17 Ave Farhat Hached?</t>
+          <t>Day Plan:
+Morning:
+- Visit the historic Palais Kobbet Ennhas, known for its stunning architecture and event space.
+Mid-Morning:
+- Stroll through Mosquée de Manouba, immersing yourself in its spiritual atmosphere and admiring its beautiful architecture.
+Midday:
+- Satisfy your taste buds with an authentic Tunisian lunch at BADI, a highly-rated restaurant offering delectable local cuisine.
+Afternoon:
+- Engage in a thrilling football match or enjoy a relaxing walk at the Manouba football field.
+Evening:
+- Go shopping for souvenirs and local products at the vibrant La_Granja_by_saf.
+Night:
+- Conclude your day with a delightful dinner at Pizzeria Gourmet, savoring their delicious pizzas and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Patisserie douiri is a restaurant located in Manouba (coordinates: 36.812374, 10.0930597). Rated 4.7 stars, it offers a range of dining options and has received positive reviews from customers. The restaurant is open from 09:00 to 19:45 and is closed on []. To make a reservation or for more information, call 23 134 544.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a military museum located in Manouba, Tunisia. The museum is housed in a historic palace that was built in the 19th century. The museum's collection includes a variety of military artifacts, including weapons, uniforms, and vehicles. The museum also has a library and a research center.
+The Musée National Militaire is a popular tourist destination. The museum is open to the public from Tuesday to Sunday, from 9:00 AM to 4:00 PM. The museum is closed on Mondays.
+The Musée National Militaire is located at the following address:
+Musee National Militaire
+53 Ave Habib Bourguiba 2010, Tunisia
++216 70 604 018
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7431,14 +10941,73 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Tooka restaurant located at Tooka restaurant, 24 Habib bourguiba, Manouba 2010. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on None. To get there, use these GPS coordinates: 36.809955772971, 10.093606997312. For more details, visit their website at https://tooka.tn/ or call them at 21 729 728.</t>
+          <t>Tooka restaurant is located in Manouba, Tunisia, at the coordinates (36.809955772971, 10.093606997312). It offers a variety of dishes and has a rating of 4.9 out of 5 stars on Google. The restaurant is open from 10:00 AM to 11:00 PM and is closed on Mondays. You can contact the restaurant at 21 729 728.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>If you happen to be in Manouba and are craving some delicious food, where can you find a top-rated restaurant with a wide selection of dishes?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical Palais Kobbet Ennhas for its magnificent architecture and event space.
+Mid-Morning:
+- Stop by CAFE\'IN for a delightful coffee and pastry while immersing in the cozy ambiance.
+Midday:
+- Try the local cuisine at BADI for an authentic Tunisian dining experience.
+Afternoon:
+- Enjoy a scenic walk along Mosquée de Manouba, admiring its stunning architecture and spiritual atmosphere.
+Evening:
+- Experience a traditional Tunisian night at PSP Ndeg D 10, where you can delve into flavorful dishes and enjoy live music.
+Night:
+- Relax and unwind with a soothing spa treatment at one of Manouba's many spas, leaving you refreshed for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 9:30am to 11:00pm and is closed on Sundays. It is located at the coordinates (36.812374, 10.0930597).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a remarkable museum located in Manouba, Tunisia, situated at the coordinates (36.809795648325, 10.093575836048). It's a rich repository of military history, featuring an array of exhibits showcasing weapons, uniforms, and other artifacts from various conflicts. Visitors can delve into the rich history of Tunisia's military and gain insights into the nation's role in shaping the region's past.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7544,12 +11113,68 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated Restaurant, check out UNO Pizza located at Residence EL Mokhtar, Manouba. This local favorite offers a range of Restaurant categories and has a rating of 4.5. They're open 24h/24, so you can visit anytime. To get there, use these GPS coordinates: (36.8150846, 10.0826309). For more details, call them at 53 672 963.</t>
+          <t>UNO pizza is a restaurant located in Manouba, Tunisia. It is open 24/7 and offers a wide variety of dishes, including pizza, pasta, and salads. The restaurant is located at the following coordinates: 36.8150846, 10.0826309.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Manouba that is open 24 hours and offers a variety of cuisines?</t>
+          <t>Day Plan:
+Morning: Exploring Mosquée de Manouba
+Mid-Morning: Trying local cuisine at CAFFEIN
+Midday: Visiting Palais Kobbet Ennhas
+Afternoon: Enjoying a football game at Manouba football field
+Evening: Experiencing cultural immersion at The Underground Workshop
+Night: Relaxing with a dinner at Resto Marino</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+MAC REGAL is a restaurant located in Manouba, Tunisia. It has a rating of 5.0 stars based on 2 reviews and is open from 09:00 to 23:30 daily. The restaurant can be found at the coordinates (36.812374, 10.0930597) and offers a variety of dining options.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Underground Workshop in Manouba is a museum showcasing Tunisia's rich culture and history. It offers a unique experience, immersing visitors in the traditional crafts and lifestyle of the country. Located at (36.812374, 10.0930597), this highly-rated destination is a must-see for tourists and history enthusiasts alike.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7659,12 +11284,67 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out GIOSUE PIZZA located at route Oued ellil km 7 Manouba, 2010. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on . To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.instagram.com/giosue_pizza/ or call them at 25 076 021.</t>
+          <t>GIOSUE PIZZA is a 4.4-rated restaurant located at route Oued ellil km 7 Manouba, 2010 with GPS coordinates (36.8037861, 10.0653004). The restaurant serves Italian dish and is opened on a daily basis from 10:00 to 22:00. For more information, visit its website at https://www.instagram.com/giosue_pizza/</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Question: If you're in Manouba and craving some delicious food at a highly rated restaurant, where should you go, and what makes it so special?</t>
+          <t>Day Plan:
+Morning: Explore the historic Palais Kobbet Ennhas, a stunning wedding chapel and historical site.
+Mid-Morning: Visit the Musée National Militaire, a fascinating museum that houses a collection of military artifacts and documents telling the story of Tunisia's military past.
+Midday: Have lunch at the highly-rated BADI, a Tunisian restaurant known for its authentic atmosphere and delicious food.
+Afternoon: Enjoy a guided tour of the Universitaire de La Manouba, a renowned university with a beautiful campus and a rich academic history.
+Evening: Take a stroll through the scenic Mosquée de Manouba, a stunning mosque that welcomes visitors to immerse themselves in its spiritual atmosphere.
+Night: Experience cultural immersion at a traditional Tunisian music performance at the Palais Kobbet Ennhas.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire houses a collection of military artifacts and documents telling the story of Tunisia's military past. Housed in a grand palace, the museum features displays on various wars and conflicts, weapons, and military history. Guided tours are available to provide insights into the significance of the exhibits.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7762,12 +11442,68 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Resto maya located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. For more details, visit their website at https://www.google.com/maps/place/Resto+maya/data=!4m7!3m6!1s0x12fd33859e294065:0xf10412b3efab73ef!8m2!3d36.8165266!4d10.0817732!16s%2Fg%2F11js7b_vly!19sChIJZUApnoUz_RIR73Or77MSBPE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Resto maya is a highly-rated (5.0) restaurant located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. It is a popular spot among locals and has received positive reviews for its cuisine. Unfortunately, we have no further information regarding the specific dishes offered or the restaurant's ambiance. For more details, we recommend checking their online presence or contacting the establishment directly.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in Manouba offers a 24/7 dining experience for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Mosquée de Manouba
+Mid-Morning: Trying local cuisine at the highly-rated BADI Tunisian restaurant
+Midday: Visiting the historical Palais Kobbet Ennhas for a wedding chapel and event space experience
+Afternoon: Enjoying the outdoor atmosphere and football field at the Manouba football field
+Evening: Shopping for souvenirs and local products at La_Granja_by_saf
+Night: Relaxing with a cozy ambiance and coffee at CAFE'IN</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+wld lby` n`ym is a restaurant in Manouba known for its excellent food, as evidenced by its impressive 5.0 rating from a customer review. Located at 17 Avenue Farhat Hached, the establishment's exact geographic coordinates are latitude 36.80609228872 and longitude 10.095230317719.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Underground Workshop is a museum located in Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It has received a 5.0 rating from a single review.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7869,14 +11605,67 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out PSP Ndeg D 10 located at R3C7+Q3C PSP Ndeg D 10, Unnamed Road, Manouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:30-23:00. To get there, use these GPS coordinates: 36.812374, 10.0930597.</t>
+          <t>PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has received positive reviews, praising its friendly staff and delicious food. It is located at (36.812374, 10.0930597) and is open from 09:30-23:00.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>If you're in Manouba and seeking a highly-rated destination known for its exceptional Restaurant, where can you go to find this top-rated spot with a perfect rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the historic Palais Kobbet Ennhas, known for its stunning architecture and wedding chapel.
+Mid-Morning: Visit the beautiful Mosquée de Manouba, immersing yourself in its spiritual atmosphere and admiring its intricate details.
+Midday: Indulge in an authentic Tunisian lunch at BADI, savoring the flavors of traditional cuisine.
+Afternoon: Take a guided tour of the Universitaire de La Manouba, discovering its academic facilities and learning about its educational programs.
+Evening: Enjoy a scenic walk along the shores of Lac de Tunis, admiring the tranquil waterfront and capturing stunning sunset views.
+Night: Head to La_Granja_by_saf for a family-friendly dinner, sampling its delectable dishes and enjoying the warm atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Restaurant Habib pizzaria is located in Manouba, Tunisia. It is a restaurant that offers pizzas. The restaurant is located at the coordinates (36.817297092048, 10.095003514771).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Underground Workshop is a museum located in Manouba, Tunisia. It offers a unique experience to visitors, with its focus on showcasing the history and culture of the region. The museum is situated at the coordinates (36.812374, 10.0930597), making it easily accessible to tourists and locals alike.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7970,14 +11759,67 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Restaurant Habib pizzaria located at Avenue Khaled Ibn El Walid. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.817297092048, 10.095003514771.</t>
+          <t>Restaurant Habib pizzaria is located in Manouba, Tunisia. It is a restaurant that offers pizzas. The restaurant is located at the coordinates (36.817297092048, 10.095003514771).</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a top-rated restaurant destination with a high rating and a variety of dining options?</t>
+          <t>Day Plan:
+Morning: Visit the Mosquée de Manouba for its spiritual significance and stunning architecture.
+Mid-Morning: Explore the Manouba football field for a glimpse into the local sporting culture.
+Midday: Try local cuisine at Restaurant roufa, known for its delicious fast food options.
+Afternoon: Engage in outdoor activities at the Manouba University campus, offering scenic views and green spaces.
+Evening: Immerse yourself in cultural heritage at the Palais Kobbet Ennhas, a historical site perfect for capturing the essence of the region.
+Night: Relax with a visit to the Station El Gobaa, offering a seamless transportation experience and a chance to soak in the local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Les Délices de Afef is a restaurant located in Manouba, Tunisia. It is open from 08:00 to 21:00 and is closed on . The restaurant has a rating of 5.0 and is known for its delicious food. It is located at the coordinates (36.812374, 10.0930597).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum in Manouba, Tunisia, dedicated to military history. It is located in a palace that was built in 1984 and houses a collection of weapons, uniforms, and other artifacts from Tunisian military history. The museum also offers guided tours of its exhibits.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8071,12 +11913,68 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out #3roubi resto located at R3HQ+3MR, Manouba 2086. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-23:30, but closed on mercredi.</t>
+          <t>#3roubi resto is a highly-rated restaurant located in Manouba. The restaurant opens daily from 09:00 am to 11:30 pm, except on Wednesdays when it is closed. The restaurant has a 5.0-star rating on Google Maps and offers a wide variety of dining options. #3roubi resto is known for its delicious food and excellent service. The restaurant is located at R3HQ+3MR, Manouba 2086.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>In Manouba, what highly-rated restaurant destination offers an exceptional dining experience with a wide selection of cuisines?</t>
+          <t>Day Plan:
+Morning: Exploring the stunning Mosquée de Manouba, immersing yourself in its spiritual atmosphere (4:00 AM - 9:30 PM).
+Mid-Morning: Trying local cuisine at the highly-rated Tunisian restaurant, BADI (Coordinates: 36.802206582249, 10.103998396652).
+Midday: Visiting the historical site and wedding chapel, Palais Kobbet Ennhas, admiring its magnificent architecture (Coordinates: 36.809795648325, 10.093575836048).
+Afternoon: Enjoying a leisurely walk and scenic views at the Manouba football field (Coordinates: 36.812374, 10.0930597).
+Evening: Indulging in a relaxing Hammam experience at a traditional spa or hotel to rejuvenate and unwind.
+Night: Exploring the bustling La_Granja_by_saf Restaurant familial, savoring delicious local dishes and enjoying a vibrant ambiance (Coordinates: R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba).</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a museum located in Manouba, Tunisia, that showcases and preserves Tunisia's military history. The museum is housed in a historic palace, and displays a collection of artifacts and exhibits that tell the story of Tunisia's military from ancient times to the present day. Exhibits focus on military history, with a focus on arms and military equipment. The museum also has a collection of historical documents and photographs.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8170,14 +12068,67 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Restaurant roufa located at R3FM+R25 Restaurant roufa, Manouba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Restaurant+roufa/data=!4m7!3m6!1s0x12fd331c5b23afe1:0x40567b081458b6e8!8m2!3d36.8237324!4d10.0842049!16s%2Fg%2F11jyx_zxsh!19sChIJ4a8jWxwz_RIR6LZYFAh7VkA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly-rated spot for fast food, with a 5.0 rating and GPS coordinates of 36.812374, 10.0930597?</t>
+          <t>Day Plan:
+Morning: Explore the historic Palais Kobbet Ennhas, which offers a glimpse into Tunisia's rich heritage and provides a magnificent setting for events.
+Mid-Morning: Visit the Musée National Militaire to delve into Tunisia's military history and admire a remarkable collection of weaponry, uniforms, and memorabilia.
+Midday: Savor traditional Tunisian cuisine at BADI, a highly-rated restaurant renowned for its authentic atmosphere and delectable dishes.
+Afternoon: Relax and rejuvenate with a soothing massage at a spa or hotel, allowing you to unwind and recharge for the rest of your day.
+Evening: Experience the vibrant ambiance of the Mosquée de Manouba, known for its spiritual atmosphere and stunning architecture, making it an ideal place for peaceful contemplation.
+Night: Indulge in a delightful dinner at Resto Marino, celebrated for its exquisite seafood cuisine and perfect 5.0 rating, ensuring a memorable culinary experience.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Belgacem is a restaurant located in Manouba, Tunisia. It has a rating of 4.0 out of 5 based on 1 review. The restaurant's exact coordinates are (36.8285666, 10.1008111).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8275,14 +12226,75 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Belgacem located at Belgacem, Manouba Douar hicher, 2086. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8285666, 10.1008111. For more details, visit their website at https://www.google.com/maps/place/Belgacem/data=!4m7!3m6!1s0x12fd33d1c5af40d5:0x71bd3bd2ed928909!8m2!3d36.8277309!4d10.0891255!16s%2Fg%2F11jm6bpd8g!19sChIJ1UCvxdEz_RIRCYmS7dI7vXE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 244 392.</t>
+          <t>Belgacem is a restaurant located in Manouba, Tunisia. It has a rating of 4.0 out of 5 based on 1 review. The restaurant's exact coordinates are (36.8285666, 10.1008111).</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly-rated destination with a range of restaurant options, particularly popular among Restaurant lovers?</t>
+          <t>**Day Plan in Manouba:**
+**Morning:**
+* Explore the National Military Museum to learn about the country's military history.
+**Mid-Morning:**
+* Visit the stunning Mosquée de Manouba for a spiritual and cultural experience.
+**Midday:**
+* Try local cuisine at Resto maya, a highly-rated restaurant known for its delicious food.
+**Afternoon:**
+* Relax with a coffee and cozy ambiance at CAFE'IN, a popular café in the Manouba neighborhood.
+**Evening:**
+* Engage in outdoor activities like football at the Manouba football field.
+**Night:**
+* Explore the vibrant and lively atmosphere at La_Granja_by_saf, a family restaurant serving a variety of dishes.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Resto maya is a highly-rated (5.0) restaurant located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. It is a popular spot among locals and has received positive reviews for its cuisine. Unfortunately, we have no further information regarding the specific dishes offered or the restaurant's ambiance. For more details, we recommend checking their online presence or contacting the establishment directly.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The National Military Museum is located in Manouba, Tunisia, showcasing the country's military history. Situated at 53 Habib Bourguiba Avenue, it features exhibits on military achievements and conflicts. The museum is open from 9:00 AM to 4:00 PM daily, except for Mondays, and admission typically requires a fee. It is renowned for its collection of weapons, military equipment, and historical artifacts.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8380,12 +12392,68 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great place to dine, check out Djerba Resto located at R39R+65H Djerba Resto, Manouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.854656307718, 9.938288999294. For more details, visit their website at https://www.google.com/maps/place/Djerba+Resto/data=!4m7!3m6!1s0x12fd33001d20dca3:0xb92b19276205b936!8m2!3d36.8181573!4d10.0905287!16s%2Fg%2F11vrrgdm_x!19sChIJo9wgHQAz_RIRNrkFYicZK7k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Djerba Resto, located in Manouba (coordinates: 36.854656307718, 9.938288999294), is a restaurant that serves delicious food and has a great ambiance. It's a popular spot for locals and tourists alike, and the staff is always friendly and welcoming. The menu features a variety of dishes, including traditional Tunisian cuisine and international favorites. Djerba Resto is also a great place to relax and enjoy a drink or two with friends.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find the highly-rated Djerba Resto, known for its excellent cuisine and variety of restaurant options?</t>
+          <t>Day Plan:
+Morning: Start your day with a visit to the Musee National Militaire to delve into Tunisia's rich military history.
+Mid-Morning: Head to CAFE'IN for a delightful coffee and a bite to eat while savoring the local ambiance.
+Midday: Indulge in a delectable lunch at wld lby` n`ym, renowned for its exceptional cuisine.
+Afternoon: Explore the stunning Mosquée de Manouba, a cherished spiritual landmark with a tranquil atmosphere.
+Evening: Take a leisurely stroll through the scenic Parc de la Manouba, enjoying the lush greenery and vibrant atmosphere.
+Night: Experience traditional Tunisian cuisine at BADI, known for its authentic dishes and warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+wld lby` n`ym is a restaurant in Manouba known for its excellent food, as evidenced by its impressive 5.0 rating from a customer review. Located at 17 Avenue Farhat Hached, the establishment's exact geographic coordinates are latitude 36.80609228872 and longitude 10.095230317719.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is located in Manouba, and offers a comprehensive history of military conflicts in Tunisia. This building was built in 1989 over an area of 12 hectares and has been open to the public since 1991. The collections depict the military apparatus of the Tunisian army over the last two centuries, showcasing weapons, costumes, decorations, and military equipment. Additionally, the museum hosts a variety of cultural events, such as exhibitions and conferences.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8483,12 +12551,75 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated Restaurant, check out wld lby` n`ym located at 17 Ave Farhat Hached, Manouba. This destination has a rating of 5.0 and offers a range of Restaurant categories to choose from. To get there, use these GPS coordinates: 36.80609228872, 10.095230317719. For more details, visit their website at https://www.google.com/maps/place/%D9%88%D9%84%D8%AF+%D8%A7%D9%84%D8%A8%D9%8A%D8%A7%D8%B9+%D9%86%D8%B9%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fd336186a1fe91:0xb851e49e0a858e58!8m2!3d36.8060829!4d10.0951508!16s%2Fg%2F11tdqgfhn4!19sChIJkf6hhmEz_RIRWI6FCp7kUbg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>wld lby` n`ym is a restaurant in Manouba known for its excellent food, as evidenced by its impressive 5.0 rating from a customer review. Located at 17 Avenue Farhat Hached, the establishment's exact geographic coordinates are latitude 36.80609228872 and longitude 10.095230317719.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a 5.0 rating offering a wide selection of dining options in Manouba?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical and cultural side of Manouba by visiting the **Musée National Militaire**, which showcases Tunisia's military heritage.
+**Mid-Morning:**
+* Take a guided tour of the **Palais Kobbet Ennhas**, a historical wedding chapel that offers stunning views of the city.
+**Midday:**
+* Savor the authentic flavors of Tunisian cuisine at the highly-rated **BADI** restaurant.
+**Afternoon:**
+* Relax and rejuvenate with a spa treatment at the luxurious **Hotel****.
+**Evening:**
+* Experience the vibrant atmosphere of Manouba at **La_Granja_by_saf**, a family-run restaurant known for its delicious dishes.
+**Night:**
+* Enjoy a nightcap and live entertainment at **CAFE\'IN**, a trendy café famous for its cozy ambiance and variety of coffee drinks.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Resto maya is a highly-rated (5.0) restaurant located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. It is a popular spot among locals and has received positive reviews for its cuisine. Unfortunately, we have no further information regarding the specific dishes offered or the restaurant's ambiance. For more details, we recommend checking their online presence or contacting the establishment directly.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+**Musée National Militaire**
+Located in Manouba, Musée National Militaire is a fascinating destination that showcases the rich military history of Tunisia. Nestled amidst the grandeur of the Habib Bourguiba Palace, it boasts a comprehensive collection of weaponry, uniforms, and artifacts that narrate the country's military past from ancient times to contemporary conflicts. Open from 9 am to 4 pm daily, the museum provides a unique glimpse into the country's defense and heritage. Visitors can delve into the history of military campaigns, explore the architectural splendor of the palace, and discover the stories of Tunisia's brave soldiers.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8586,12 +12717,74 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Gare routiere, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. This top-rated destination is rated 4.0 and is a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Gare routiere called Station Transport en Commun La Manouba in manouba?</t>
+          <t>Day Plan:
+Morning: Exploring the Musuée National Militaire to learn about the history of the Tunisian military.
+Mid-Morning: Trying local cuisine at Resto Marino which offers a delightful seafood experience.
+Midday: Visiting the historical Palais Kobbet Ennhas, a magnificent space for organizing ceremonies and events.
+Afternoon: Enjoying scenic views at the Mosquée de Manouba, a stunning mosque with a 4.8-star rating.
+Evening: Relaxing with a shopping at La_Granja_by_saf, which offers a variety of products and a welcoming atmosphere.
+Night: Participating in a guided tour of CAFE'IN, a trendy café with a 4.0 rating and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire in Manouba, Tunisia, is a museum dedicated to military history. It is situated on Habib Bourguiba Avenue and has a rating of 4.6 based on 140 reviews. The museum is open from 9:00 AM to 4:00 PM every day except Mondays. Notable aspects of the museum include:
+- Exhibits on military history, including weapons, uniforms, and historical artifacts
+- A focus on the history of the Tunisian military
+- A collection of military vehicles and artillery
+- Guided tours available
+- A central location in the city
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8689,12 +12882,67 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Gare, check out Gare sncft La Manouba located at Gare sncft La Manouba, Tunis 2010. This top-rated destination is perfect for Gare lovers. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004.</t>
+          <t>Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where in Tunis can you find a highly rated Gare with GPS coordinates 36.8037861, 10.0653004?</t>
+          <t>Day Plan:
+Morning: Explore the scenic streets of Manouba, capturing the essence of its local culture and charm.
+Mid-Morning: Visit the imposing Palais Kobbet Ennhas, admiring its architectural grandeur and delving into its historical significance.
+Midday: Indulge in a delectable culinary experience at Belgacem, savoring the authentic flavors of Tunisian cuisine.
+Afternoon: Immerse yourself in the tranquility of Mosquée de Manouba, finding solace and spiritual rejuvenation within its sacred walls.
+Evening: Stroll through the bustling La_Granja_by_saf market, browsing an array of local products and souvenirs.
+Night: Experience the vibrant nightlife of Manouba at Royale Club, enjoying live music and energetic dancing.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Belgacem is a restaurant located in Manouba, Tunisia. It has a rating of 4.0 out of 5 based on 1 review. The restaurant's exact coordinates are (36.8285666, 10.1008111).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a museum located in Manouba, Tunisia, that showcases and preserves Tunisia's military history. The museum is housed in a historic palace, and displays a collection of artifacts and exhibits that tell the story of Tunisia's military from ancient times to the present day. Exhibits focus on military history, with a focus on arms and military equipment. The museum also has a collection of historical documents and photographs.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8788,12 +13036,68 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a convenient spot, check out Cite khaled ibn alwalid manouba tunis located at Cite khaled ibn alwalid manouba tunis. This place is rated 2.9, so it's worth a visit.</t>
+          <t>This is a bus station located in manouba, Tunisia. Its coordinates are (36.824935774398, 10.081883709131).</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where can I find a conveniently located accommodation with a decent rating in Manouba?</t>
+          <t>Day Plan:
+Morning: Exploring the stunning Mosquée de Manouba, immerse in its spiritual atmosphere (9:30 AM - 12 PM)
+Mid-Morning: Trying local cuisine at 2M, savor the authentic flavors of Tunisian cuisine (12 PM - 2 PM)
+Midday: Enjoying a scenic stroll through La_Granja_by_saf, take in the serene ambiance and lush greenery (2 PM - 4 PM)
+Afternoon: Embark on a guided tour of Palais Kobbet Ennhas, delve into the captivating history and beauty of this architectural gem (4 PM - 6 PM)
+Evening: Exploring the vibrant Station de Metro Slimane Kehia, experience the bustling atmosphere and connect with locals (6 PM - 8 PM)
+Night: Indulge in a relaxing massage at a local spa, rejuvenate and unwind after a day of exploration (8 PM - 10 PM)</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Underground Workshop in Manouba is a museum showcasing Tunisia's rich culture and history. It offers a unique experience, immersing visitors in the traditional crafts and lifestyle of the country. Located at (36.812374, 10.0930597), this highly-rated destination is a must-see for tourists and history enthusiasts alike.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8891,14 +13195,68 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. 
-This top-rated destination is perfect for Gare routiere lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly rated destination for Gare routiere enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the Musee National Militaire to learn about Tunisia's military history and heritage.
+Mid-Morning: Visiting Palais Kobbet Ennhas, a historical site and wedding chapel, to admire its architectural beauty and rich history.
+Midday: Trying local cuisine at BADI, a highly-rated Tunisian restaurant, to enjoy authentic flavors and a delightful dining experience.
+Afternoon: Relaxing in the serene ambiance of Mosquée de Manouba, a renowned place of worship that offers tranquility and spiritual upliftment.
+Evening: Taking a guided tour of Universitaire de La Manouba, a prestigious university, to discover its academic excellence and explore its beautiful campus.
+Night: Enjoying scenic views and fresh air at Parc de la Manouba, a green oasis with lush gardens and pathways, perfect for a leisurely evening stroll.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+In Manouba, Tunisia, the Musee National Militaire is located at coordinates (36.809795648325, 10.093575836048). It offers insights into Tunisia's military history through exhibits showcasing weapons and artifacts, and provides tours detailing past conflicts and important figures. The museum is open from 9 AM to 4 PM Tuesday through Sunday, except Mondays.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8996,12 +13354,68 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Station de Metro Slimane Kehia located at Station de Metro Slimane Kehia, Manouba 2010. This top-rated destination is perfect for Station de metro lovers and offers a range of Station de metro to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.8032184, 10.099007.</t>
+          <t>Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly-rated destination with a wide selection of Station de metro options?</t>
+          <t>Day Plan:
+Morning: Exploring Universitaire de La Manouba
+Mid-Morning: Trying local cuisine at CAFE'IN
+Midday: Visiting Resto Marino
+Afternoon: Enjoying scenic views at Mosquée de Manouba
+Evening: Participating in an event at Palais Kobbet Ennhas
+Night: Relaxing with a massage at a local spa</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Chez Salih Restaurant is a highly-rated restaurant located in Manouba, Tunisia. It offers a range of cuisines and has received positive reviews from customers. The restaurant is situated at coordinates (36.814559184394, 10.099520008126), making it easily accessible to visitors.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum located in Manouba, Tunisia, showcasing the military history of the country. It is situated at the coordinates 36.809795648325, 10.093575836048. The museum is open from 9:00 AM to 4:00 PM from Tuesday to Sunday but is closed on Mondays. The phone number to reach the museum is 70 604 018.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9099,15 +13513,68 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a train station, check out Gare sncft La Manouba located at Gare sncft La Manouba, Tunis 2010. 
-This top-rated destination is perfect for train station lovers. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: . 
-To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at  or call them at .</t>
+          <t>Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated train station with GPS coordinates of 36.8037861, 10.0653004 in Manouba?</t>
+          <t>Day Plan:
+Morning: Exploring the ruins of Palais Kobbet Ennhas, a historical site that offers a glimpse into Tunisia's past.
+Mid-Morning: Visit La perla, a boutique offering luxury lingerie and sleepwear. Shop for souvenirs or indulge in a bit of pampering.
+Midday: Try local cuisine at #3roubi resto, a highly-rated restaurant offering a wide variety of dining options. Savor the authentic flavors of Tunisian culinary traditions.
+Afternoon: Relax with a traditional hammam experience at a local spa. Unwind and rejuvenate in the steamy, fragrant atmosphere.
+Evening: Experience cultural immersion at the Musée National Militaire, showcasing Tunisia's rich military history through exhibits and artifacts.
+Night: Witness the vibrant nightlife at Baddi, a popular Tunisian restaurant. Enjoy live music and traditional dance performances while indulging in delicious local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+#3roubi resto is a highly-rated restaurant located in Manouba. The restaurant opens daily from 09:00 am to 11:30 pm, except on Wednesdays when it is closed. The restaurant has a 5.0-star rating on Google Maps and offers a wide variety of dining options. #3roubi resto is known for its delicious food and excellent service. The restaurant is located at R3HQ+3MR, Manouba 2086.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a museum located in Manouba, Tunisia, that showcases and preserves Tunisia's military history. The museum is housed in a historic palace, and displays a collection of artifacts and exhibits that tell the story of Tunisia's military from ancient times to the present day. Exhibits focus on military history, with a focus on arms and military equipment. The museum also has a collection of historical documents and photographs.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9205,12 +13672,75 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a convenient transportation hub, check out Station Transport en Commun La Manouba, located at Station Transport en Commun La Manouba, Manouba 2010. This top-rated destination is perfect for those looking to travel by bus or other means of public transportation. With a rating of 4.0, it's a must-visit spot for travelers and commuters alike. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Where in Manouba is the highly-rated transportation hub Station Transport en Commun La Manouba conveniently located for public transportation users?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the stunning Mosquée de Manouba for its spiritual atmosphere and beautiful architecture.
+**Mid-Morning:**
+- Take a guided tour of the Musée National Militaire to learn about Tunisia's rich military history.
+**Midday:**
+- Try local cuisine at BADI, a highly-rated Tunisian restaurant offering an authentic dining experience.
+**Afternoon:**
+- Enjoy scenic views at Palais Kobbet Ennhas, a historical site and wedding chapel with an impressive 4.3-star rating.
+**Evening:**
+- Engage in outdoor activities like running or cycling at the Manouba football field.
+**Night:**
+- Relax with a spa treatment at a local hotel or spa to unwind after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+UNO Pizza is a 4.5-star user-rated restaurant located at UNO Pizza, Residence EL Mokhtar, Manouba (36.8150846, 10.0826309) that mainly serves Italian cuisine. It is open 24 hours a day with a link to the featured image: https://lh5.googleusercontent.com/p/AF1QipNj4ThoGFku-9U69NDLrC6hFQBeE_FBHEHAq9Cm=w426-h240-k-no
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9308,13 +13838,74 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a train station, check out Gare sncft La Manouba located at Gare sncft La Manouba, Tunis 2010. 
-This top-rated station is a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Gare+sncft+La+Manouba/data=!4m7!3m6!1s0x12fd3267a06b78d7:0x5c86b9b672f7b574!8m2!3d36.8159636!4d10.1015162!16s%2Fg%2F1ttxf03s!19sChIJ13hroGcy_RIRdLX3cra5hlw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated Gare sncft La Manouba train station in Manouba?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Palais Kobbet Ennhas (Landmark)
+**Mid-Morning:**
+- Visit the Mosquée de Manouba for a spiritual experience (Religious Site)
+**Midday:**
+- Try Tunisian cuisine at the highly-rated BADI Restaurant (Local Cuisine)
+**Afternoon:**
+- Take a guided tour of the Musée National Militaire (Museum)
+**Evening:**
+- Relax with a coffee at the trendy CAFÉ'IN (Café)
+**Night:**
+- Enjoy a delicious Italian dinner at GIOSUE PIZZA (Restaurant)</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+GIOSUE PIZZA is a 4.4-rated restaurant located at route Oued ellil km 7 Manouba, 2010 with GPS coordinates (36.8037861, 10.0653004). The restaurant serves Italian dish and is opened on a daily basis from 10:00 to 22:00. For more information, visit its website at https://www.instagram.com/giosue_pizza/
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire in Manouba, Tunisia is a place of great historical significance, showcasing military artifacts, weapons, and uniforms from different eras. Located at the coordinates (36.809795648325, 10.093575836048), the museum is housed in a grand palace-like building and boasts a wide range of exhibits that tell the story of Tunisia's military history. Visitors can explore galleries dedicated to the country's participation in various conflicts, including World War I and II, and gain insights into the development of Tunisia's armed forces over the years. With its informative displays, knowledgeable guides, and convenient location, the Musée National Militaire provides an immersive and educational experience for history buffs and visitors alike.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9412,12 +14003,68 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in manouba, Station Campus Manouba is a top-rated Service de transport destination with a 3.0 rating. Located at R375+X2M Station Campus Manouba, Manouba, it offers a range of Service de transport services. To get there, use these GPS coordinates: 36.812374, 10.0930597.</t>
+          <t>Station Campus Manouba is a transportation service located in Manouba, Tunisia, with the coordinates (36.812374, 10.0930597).</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Station Campus Manouba Service de transport destination located in Manouba and what makes it special?</t>
+          <t>Day Plan:
+Morning: Start the day with a guided tour of the prestigious Universitaire de La Manouba, delving into the academic and historical significance of the university.
+Mid-Morning: Explore the captivating Musée National Militaire, immersing yourself in the rich military history of Tunisia through its impressive collection of artifacts and displays.
+Midday: Satisfy your taste buds with a delightful lunch at the renowned seafood restaurant Resto Marino, savoring the freshest catches of the day while enjoying the waterfront ambiance.
+Afternoon: Engage in a leisurely stroll through the serene Mosquée de Manouba, marveling at its architectural beauty and immersing yourself in its spiritual atmosphere.
+Evening: Visit the historical Palais Kobbet Ennhas, an exquisite venue for events and ceremonies, and admire its stunning architecture and luxurious interiors.
+Night: Indulge in a delectable dinner at the highly-rated BADI, immersing yourself in the authentic flavors and ambiance of traditional Tunisian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+UNO pizza is a restaurant located in Manouba, Tunisia. It is open 24/7 and offers a wide variety of dishes, including pizza, pasta, and salads. The restaurant is located at the following coordinates: 36.8150846, 10.0826309.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9519,14 +14166,70 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for reliable transportation, make sure to check out Station Campus Universitaire located at R376+4Q9 Station Campus Universitaire, Manouba. 
-This top-rated destination is perfect for commuters and offers a range of transportation services to choose from.
-With a rating of 3.3, it's a popular spot. For more details, visit their website at https://www.transtu.tn/ar/ or call them for inquiries.</t>
+          <t>**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>If you're in manouba and need reliable transportation, what top-rated destination offers a range of services for commuters?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmarks - Visit Palais Kobbet Ennhas &amp; Musee National Militaire.
+Mid-Morning: Try local cuisine - Have lunch at O BNIN Restaurant.
+Midday: Enjoy scenic views - Take a walk at Mosquée de Manouba.
+Afternoon: Visit the famous landmarks - Explore Universitaire de La Manouba and enjoy the atmosphere at CAFE'IN.
+Evening: Take a break - Relax with a coffee at Cafeteria Walid.
+Night: Experience a local restaurant - Have dinner at BADI.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+O BNIN is a restaurant located in Manouba, Tunisia. It offers a variety of dishes at a 5-star rating based on 9 reviews. It is on 40 rue des travailleurs, 34 N7, Manouba. Open from Monday to Saturday from 07:00-18:00, this restaurant is very well-rated.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum located in Manouba, Tunisia, showcasing the military history of the country. It is situated at the coordinates 36.809795648325, 10.093575836048. The museum is open from 9:00 AM to 4:00 PM from Tuesday to Sunday but is closed on Mondays. The phone number to reach the museum is 70 604 018.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9624,12 +14327,68 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for transportation services, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. This top-rated destination is perfect for transportation lovers and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly-rated transportation service with a wide range of options?</t>
+          <t>Day Plan:
+Morning: Visit the majestic Mosquée de Manouba for a spiritual immersion.
+Mid-Morning: Take a guided tour of the Musee National Militaire to learn about Tunisia's military history.
+Midday: Indulge in authentic Tunisian cuisine at BADI Restaurant, known for its exceptional atmosphere and flavors.
+Afternoon: Explore the vibrant STREET 24 Mannouba for a quick and delicious fast food lunch.
+Evening: Discover the historical Palais Kobbet Ennhas, a beautiful wedding chapel with a rich cultural heritage.
+Night: For a pleasant evening, visit Station de Metro Slimane Kehia to experience the lively atmosphere and a variety of food options.</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is located in Manouba, and offers a comprehensive history of military conflicts in Tunisia. This building was built in 1989 over an area of 12 hectares and has been open to the public since 1991. The collections depict the military apparatus of the Tunisian army over the last two centuries, showcasing weapons, costumes, decorations, and military equipment. Additionally, the museum hosts a variety of cultural events, such as exhibitions and conferences.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9723,13 +14482,67 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a reliable Station-service, check out station bus located at R39W+93P station bus. 
-This top-rated destination has a rating of 3.7, making it a must-visit spot for Station-service lovers. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.8024723, 10.1102438. For more details, visit their website at https://www.google.com/maps/place/station+bus/data=!4m7!3m6!1s0x12fd334d737c5855:0xa62ab4dea918ef18!8m2!3d36.8184538!4d10.0952125!16s%2Fg%2F11h7kt4s_z!19sChIJVVh8c00z_RIRGO8Yqd60KqY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>Which top-rated Station-service can be found in Manouba, boasting a convenient location at R39W+93P station bus?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Mosquée de Manouba.
+Mid-Morning: Savory Tunisian cuisine at the renowned BADI.
+Midday: Visit the historic Palais Kobbet Ennhas for a glimpse of local heritage.
+Afternoon: Engage in outdoor activities at the Manouba football field.
+Evening: Enjoy a relaxing experience at the Station Spa for rejuvenating treatments.
+Night: Experience cultural immersion at the Musee National Militaire, showcasing Tunisia's military history.</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Djerba Resto, located in Manouba (coordinates: 36.854656307718, 9.938288999294), is a restaurant that serves delicious food and has a great ambiance. It's a popular spot for locals and tourists alike, and the staff is always friendly and welcoming. The menu features a variety of dishes, including traditional Tunisian cuisine and international favorites. Djerba Resto is also a great place to relax and enjoy a drink or two with friends.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is a museum located in Manouba, Tunisia, showcasing the military history of the country. It is situated at the coordinates 36.809795648325, 10.093575836048. The museum is open from 9:00 AM to 4:00 PM from Tuesday to Sunday but is closed on Mondays. The phone number to reach the museum is 70 604 018.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9827,12 +14640,69 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for public transport service, check out Manouba Station located at R423+R2Q Manouba Station, Manouba. This destination is perfect for Service de transport lovers. With a rating of 3.0, it's a spot worth considering. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.transtu.tn/ar/.</t>
+          <t>Manouba Station is a transport service provider located in Manouba, Tunisia. With a rating of 3.0 out of 5, the station offers a convenient and reliable way to get around the city. The station's website provides information on schedules, fares, and other services.</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a public transportation station with a 3.0 rating suitable for Service de transport users?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Mosquée de Manouba.
+Mid-Morning: Immerse yourself in history at the fascinating Musee National Militaire.
+Midday: Delight in local cuisine at the highly-rated Resto Marino, known for its exquisite seafood dishes.
+Afternoon: Stroll through the vibrant La_Granja_by_saf market, offering a diverse selection of goods.
+Evening: Ascend to Palais El-Warda metro station for a leisurely walk and admire the panoramic city views.
+Night: Experience cultural immersion at the captivating Palais Kobbet Ennhas, soaking in its historical ambiance.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+GIOSUE PIZZA is a 4.4-rated restaurant located at route Oued ellil km 7 Manouba, 2010 with GPS coordinates (36.8037861, 10.0653004). The restaurant serves Italian dish and is opened on a daily basis from 10:00 to 22:00. For more information, visit its website at https://www.instagram.com/giosue_pizza/
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Located in Manouba, Musee National Militaire is a historical museum that showcases Tunisia's military history. It houses a vast collection of arms, uniforms, and war memorabilia, offering visitors an immersive experience into the country's past conflicts. The museum's unique setting within a former palace adds to its architectural charm.
+The museum hosts guided tours that provide in-depth insights into the history of Tunisian military and the significance of the exhibits. With its convenient location and educational offerings, Musee National Militaire is an ideal destination for history buffs and anyone interested in exploring Tunisia's cultural heritage.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9930,14 +14800,68 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Station de Metro Slimane Kehia located at Station de Metro Slimane Kehia, Manouba 2010. 
-This top-rated destination is perfect for Station de metro lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.8032184, 10.099007. For more details, visit their website at https://www.google.com/maps/place/Station+de+M%C3%A9tro+Slimane+Kehia/data=!4m7!3m6!1s0x12fd326b33f7e459:0x74fd66b17932f138!8m2!3d36.8032156!4d10.0990925!16s%2Fg%2F1tp6lq62!19sChIJWeT3M2sy_RIROPEyebFm_XQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>What top-rated destination in Manouba, known for its appeal to Station de metro enthusiasts, boasts GPS coordinates of 36.8032184, 10.099007 and a stellar rating of 4.3?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Mosquée de Manouba, known for its spiritual ambiance.
+Mid-Morning: Visit the Station-service Shell gas station to fuel up your vehicle and grab a quick bite at the convenience store.
+Midday: Indulge in authentic Tunisian cuisine at BADI restaurant, offering a perfect blend of flavors and atmosphere.
+Afternoon: Stroll through La_Granja_by_saf, a family-run restaurant renowned for its delicious dishes and warm hospitality.
+Evening: Enjoy a vibrant evening at CAFE'IN, a trendy café known for its cozy ambiance and variety of coffee drinks.
+Night: Experience the historical charm of Palais Kobbet Ennhas, a beautiful wedding chapel and event space.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Les Délices de Afef is a restaurant located in Manouba, Tunisia. It is open from 08:00 to 21:00 and is closed on . The restaurant has a rating of 5.0 and is known for its delicious food. It is located at the coordinates (36.812374, 10.0930597).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Underground Workshop is a museum located in Manouba, Tunisia. It offers a unique experience to visitors, with its focus on showcasing the history and culture of the region. The museum is situated at the coordinates (36.812374, 10.0930597), making it easily accessible to tourists and locals alike.
+Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10035,12 +14959,67 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Gare, check out Gare sncft La Manouba located at Gare sncft La Manouba, Tunis 2010. This top-rated destination is perfect for Gare lovers. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004.</t>
+          <t>The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Gare with GPS coordinates of 36.8037861, 10.0653004 in Manouba?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the renowned Musée National Militaire, showcasing Tunisia's rich military history.
+Mid-Morning: Immerse yourself in the spiritual atmosphere of the stunning Mosquée de Manouba, a beacon of faith for the local community.
+Midday: Treat your taste buds to authentic Tunisian cuisine at the highly-rated BADI restaurant, renowned for its traditional dishes.
+Afternoon: Venture to Palais El-Warda metro station and embark on a scenic ride, offering a unique perspective of Manouba's urban landscape.
+Evening: Experience the vibrant atmosphere of CAFE'IN, a popular café frequented by locals, and savor a delightful cup of coffee.
+Night: Unwind and relax with a pampering session at Café Fethi, offering a variety of rejuvenating treatments.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+O BNIN is a restaurant located in Manouba, Tunisia. It offers a variety of dishes at a 5-star rating based on 9 reviews. It is on 40 rue des travailleurs, 34 N7, Manouba. Open from Monday to Saturday from 07:00-18:00, this restaurant is very well-rated.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10134,12 +15113,68 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a bus stop, check out Cite khaled ibn alwalid manouba tunis located at Cite khaled ibn alwalid manouba tunis. This top-rated destination is perfect for Arret de bus lovers. With a rating of 2.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.824935774398, 10.081883709131. For more details, visit their website at https://www.google.com/maps/place/Cit%C3%A9+khaled+ibn+alwalid+manouba+tunis/data=!4m7!3m6!1s0x12fd2d7f23f508c3:0x132e46aaffc30040!8m2!3d36.8284076!4d10.0761526!16s%2Fg%2F12vszvwwz!19sChIJwwj1I38t_RIRQADD_6pGLhM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The bus stop "Cite khaled ibn alwalid manouba tunis" is located in manouba, Tunisia, at coordinates (36.824935774398, 10.081883709131). It is rated 2.9 out of 5 by 10 reviewers.</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Arret de bus stop in Manouba, Tunisia, with GPS coordinates of 36.824935774398, 10.081883709131?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Palais Kobbet Ennhas with its stunning architecture and wedding chapel.
+Mid-Morning: Trying local cuisine at the highly-rated BADI Tunisian restaurant, known for its authentic ambiance and delicious menu.
+Midday: Visiting the Mosquée de Manouba, one of Manouba's most renowned mosques, boasting a 4.8-star rating and offering a spiritual atmosphere.
+Afternoon: Enjoying scenic views at the scenic spot surrounding the Gare sncft La Manouba railway station, capturing the beauty of the transportation hub and its surroundings.
+Evening: Indulging in relaxation at the luxurious Spa at the nearby Hotel La Maison Blanche, known for its rejuvenating treatments and serene ambiance.
+Night: Participating in the vibrant nightlife at Royale Club, a popular weightlifting gym offering a lively atmosphere and the chance to engage with locals.</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Resto maya is a highly-rated (5.0) restaurant located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. It is a popular spot among locals and has received positive reviews for its cuisine. Unfortunately, we have no further information regarding the specific dishes offered or the restaurant's ambiance. For more details, we recommend checking their online presence or contacting the establishment directly.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a museum in Manouba, Tunisia, located at 36.809795648325, 10.093575836048. It receives 4.6 rating out of 5 from its 140 reviews and is open from 09:00-16:00 every day except Monday. The museum focuses on military history, with exhibits on weapons, wars, and the history of Tunisia. The museum is housed in a palace and is known for its architecture.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10237,14 +15272,79 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a reliable transportation service, check out Station Campus Manouba located at R375+X2M Station Campus Manouba. 
-This top-rated service provider is perfect for your transportation needs. 
-With a rating of 3.0, it's a must-visit spot.  To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their link at https://www.google.com/maps/place/Station+Campus+Manouba/data=!4m7!3m6!1s0x12fd2db4ae0fdfad:0x1ba13167faedca9c!8m2!3d36.8149632!4d10.0575368!16s%2Fg%2F11mhv2xhc4!19sChIJrd8PrrQt_RIRnMrt-mcxoRs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Campus Manouba is a transportation service located at R375+X2M Station Campus Manouba, Manouba. It offers various transportation services and is situated at coordinates (36.812374, 10.0930597) in Manouba. With a rating of 3.0 based on 8 reviews, Station Campus Manouba provides a reliable and convenient transportation service for the local community.</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated transportation service with easy access in Manouba, conveniently located with GPS coordinates for effortless navigation?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Palais Kobbet Ennhas, renowned for its architectural beauty and rich history.
+**Mid-Morning:**
+- Visit the Musée National Militaire to delve into the fascinating military history of Tunisia.
+**Midday:**
+- Indulge in a delectable lunch at Resto Marino, savoring the freshest seafood dishes amidst a cozy ambiance.
+**Afternoon:**
+- Take a leisurely stroll through the Mosquée de Manouba, experiencing the serene and spiritual atmosphere of this iconic landmark.
+**Evening:**
+- Enjoy a captivating performance at the Palais El-Warda, immersing yourself in the vibrant artistic culture of Manouba.
+**Night:**
+- Experience the lively atmosphere at La_Granja_by_saf, savoring authentic Tunisian dishes while enjoying the friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+MAC REGAL is a restaurant located in Manouba, Tunisia. It has a rating of 5.0 stars based on 2 reviews and is open from 09:00 to 23:30 daily. The restaurant can be found at the coordinates (36.812374, 10.0930597) and offers a variety of dining options.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a military museum located in Manouba, Tunisia. The museum is housed in a historic palace that was built in the 19th century. The museum's collection includes a variety of military artifacts, including weapons, uniforms, and vehicles. The museum also has a library and a research center.
+The Musée National Militaire is a popular tourist destination. The museum is open to the public from Tuesday to Sunday, from 9:00 AM to 4:00 PM. The museum is closed on Mondays.
+The Musée National Militaire is located at the following address:
+Musee National Militaire
+53 Ave Habib Bourguiba 2010, Tunisia
++216 70 604 018
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10354,12 +15454,69 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a reputable place to refuel, check out Station-service Shell located at Route Nationale 7 Ksar Said Rte Oued Ellil Gp7 Pk2 Manouba 2080 Ksar Said, 2037. This renowned establishment is the perfect destination for station-service enthusiasts and offers a range of related services to choose from. With a rating of 3.7 based on 7 reviews, it's a must-visit spot in the area. It's open 24 hours a day for your convenience. To get there, use these GPS coordinates: 36.8548548, 10.1533474. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044677-ksar-said or call them at 71 249 149.</t>
+          <t>Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>Where is the highly rated station-service destination with extended hours located in Manouba?</t>
+          <t>Day Plan:
+Morning: Start the day exploring the stunning Mosquée de Manouba, known for its spiritual significance and architectural beauty.
+Mid-Morning: Visit the Musee National Militaire to immerse yourself in the rich military history of Tunisia and gain insights into the country's past.
+Midday: Savor the authentic flavors of Tunisian cuisine at BADI, a highly-rated restaurant serving traditional dishes in a warm ambiance.
+Afternoon: Discover the historical significance and captivating architecture of Palais Kobbet Ennhas, a wedding chapel that offers a glimpse into the local cultural traditions.
+Evening: Experience the vibrant atmosphere of STREET 24 Mannouba, a fast food restaurant offering a wide range of choices for a casual evening meal.
+Night: Unwind and relax with a traditional hammam experience at a local spa or hotel, immersing yourself in the soothing and rejuvenating benefits of this ancient practice.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Belgacem is a restaurant located in Manouba, Tunisia. It has a rating of 4.0 out of 5 based on 1 review. The restaurant's exact coordinates are (36.8285666, 10.1008111).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musee National Militaire is located in Manouba, and offers a comprehensive history of military conflicts in Tunisia. This building was built in 1989 over an area of 12 hectares and has been open to the public since 1991. The collections depict the military apparatus of the Tunisian army over the last two centuries, showcasing weapons, costumes, decorations, and military equipment. Additionally, the museum hosts a variety of cultural events, such as exhibitions and conferences.
+The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10461,14 +15618,72 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Service de transport, check out Station Campus Universitaire located at R376+4Q9 Station Campus Universitaire, Manouba. 
-This top-rated destination is perfect for Service de transport and offers a range of categories to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.8124087, 10.0674471. For more details, visit their website at https://www.transtu.tn/ar/ .</t>
+          <t>Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a highly rated and convenient location for your transportation needs?</t>
+          <t>Day Plan:
+Morning: Explore the historic Palais Kobbet Ennhas, a magnificent wedding chapel and event space.
+Mid-Morning: Indulge in local cuisine at BADI, a highly-rated Tunisian restaurant known for its authentic atmosphere and delicious menu.
+Midday: Immerse in the spiritual ambiance of Mosquée de Manouba, a stunning mosque open from 4:00 AM to 9:30 PM.
+Afternoon: Explore the Musée National Militaire, a military museum housed in a 19th-century palace, showcasing a collection of artifacts and historical exhibits.
+Evening: Take a guided tour of Universitaire de La Manouba, a renowned university offering a well-rounded academic experience.
+Night: Relax and unwind at a local spa or hotel, treating yourself to a rejuvenating massage or beauty treatment.</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+Les Délices de Afef is a restaurant located in Manouba, Tunisia. It is open from 08:00 to 21:00 and is closed on . The restaurant has a rating of 5.0 and is known for its delicious food. It is located at the coordinates (36.812374, 10.0930597).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire is a military museum located in Manouba, Tunisia. The museum is housed in a historic palace that was built in the 19th century. The museum's collection includes a variety of military artifacts, including weapons, uniforms, and vehicles. The museum also has a library and a research center.
+The Musée National Militaire is a popular tourist destination. The museum is open to the public from Tuesday to Sunday, from 9:00 AM to 4:00 PM. The museum is closed on Mondays.
+The Musée National Militaire is located at the following address:
+Musee National Militaire
+53 Ave Habib Bourguiba 2010, Tunisia
++216 70 604 018
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.
+Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10566,14 +15781,67 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Gare routiere, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with various Gare routiere options and a 4.0 rating located in Manouba?</t>
+          <t>Day Plan:
+Morning: Explore Mosquée de Manouba for its spiritual atmosphere.
+Mid-Morning: Try local cuisine at O BNIN, a 5-star rated restaurant.
+Midday: Visit Palais El-Warda metro station to access the city center and its landmarks.
+Afternoon: Enjoy a relaxing walk at the scenic Parc de La Manouba.
+Evening: Participate in traditional cultural activities at the Maison des Jeunes de Manouba.
+Night: Experience the vibrant nightlife at Royale Club, a popular weightlifting gym.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+O BNIN is a restaurant located in Manouba, Tunisia. It offers a variety of dishes at a 5-star rating based on 9 reviews. It is on 40 rue des travailleurs, 34 N7, Manouba. Open from Monday to Saturday from 07:00-18:00, this restaurant is very well-rated.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Musée National Militaire, located at 53 Ave Habib Bourguiba, Manouba, is a military museum in Tunisia. It showcases the military history of the country, displaying a collection of weapons, uniforms, and other artifacts. The museum is a popular tourist destination, with a 4.6-star rating based on 140 reviews.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10667,12 +15935,67 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in manouba, Station El Gobaa is a top-rated place for Service de transport lovers. With a rating of 4.5, it's a must-visit spot located at R3CF+2V7 Station El Gobaa, Rue Des Oranges, Manouba. For more details, visit their website at https://www.google.com/maps/place/Station+El+Gobaa/data=!4m7!3m6!1s0x12fd2d0ce3547663:0x85a61e4fb4be0d6b!8m2!3d36.8200495!4d10.0746594!16s%2Fg%2F11qyq1m52y!19sChIJY3ZU4wwt_RIRaw2-tE8epoU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>Where in manouba can you find a highly-rated Service de transport spot with a rating of 4.5?</t>
+          <t>Day Plan:
+Morning: Explore the charming Mosquée de Manouba for its spiritual atmosphere and architectural beauty.
+Mid-Morning: Immerse yourself in history at Musée National Militaire to learn about Tunisia's rich military heritage.
+Midday: Treat your taste buds to an authentic Tunisian lunch at BADI, renowned for its exceptional cuisine.
+Afternoon: Discover the local market, La_Granja_by_saf, for a taste of Manouba's culinary delights and unique souvenirs.
+Evening: Indulge in a delectable dinner at the 5-star rated Pizzeria Gourmet, offering a cozy ambiance and mouthwatering pizzas.
+Night: Experience the vibrant nightlife of Manouba at Royale Club, a popular weightlifting gym, or enjoy a serene retreat at Cafeteria Walid with its friendly atmosphere and delicious food.</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+O BNIN is a restaurant located in Manouba, Tunisia. It offers a variety of dishes at a 5-star rating based on 9 reviews. It is on 40 rue des travailleurs, 34 N7, Manouba. Open from Monday to Saturday from 07:00-18:00, this restaurant is very well-rated.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+Musee National Militaire is a remarkable museum located in Manouba, Tunisia, situated at the coordinates (36.809795648325, 10.093575836048). It's a rich repository of military history, featuring an array of exhibits showcasing weapons, uniforms, and other artifacts from various conflicts. Visitors can delve into the rich history of Tunisia's military and gain insights into the nation's role in shaping the region's past.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10770,12 +16093,67 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in Manouba and looking for reliable transportation, check out Manouba Station located at R423+R2Q Manouba Station, Manouba. This top-rated destination offers a range of transportation services to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.transtu.tn/ar/.</t>
+          <t>Manouba Station is a transportation service located at R423+R2Q Manouba Station, Manouba (36.812374, 10.0930597). It offers various transportation services and its website is https://www.transtu.tn/ar/. The station is currently rated 3.0 based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>Where in Manouba can you find a top-rated transportation hub with various services available?</t>
+          <t>Day Plan:
+Morning: Explore the historic Mosquée de Manouba, immerse yourself in its spiritual atmosphere and admire its stunning architecture.
+Mid-Morning: Visit the Palais Kobbet Ennhas, a magnificent historical site and wedding chapel, perfect for capturing enchanting photographs.
+Midday: Indulge in the authentic Tunisian flavors at BADI, a highly-rated restaurant known for its delectable cuisine.
+Afternoon: Discover the fascinating Underground Workshop, showcasing Tunisia's rich cultural heritage and traditional crafts. Learn about the country's captivating history and immerse yourself in its vibrant culture.
+Evening: Savor the local flavors at #3roubi resto, renowned for its delicious food and impeccable service. Enjoy a memorable dining experience in a welcoming and vibrant ambiance.
+Night: Unwind and relax at the luxurious Palais El-Warda, a stunning metro station that offers a serene ambiance. Take in the captivating views of the city as you sip on refreshing beverages.</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+#3roubi resto is a highly-rated restaurant located in Manouba. The restaurant opens daily from 09:00 am to 11:30 pm, except on Wednesdays when it is closed. The restaurant has a 5.0-star rating on Google Maps and offers a wide variety of dining options. #3roubi resto is known for its delicious food and excellent service. The restaurant is located at R3HQ+3MR, Manouba 2086.
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Underground Workshop in Manouba is a museum showcasing Tunisia's rich culture and history. It offers a unique experience, immersing visitors in the traditional crafts and lifestyle of the country. Located at (36.812374, 10.0930597), this highly-rated destination is a must-see for tourists and history enthusiasts alike.
+Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.
+This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.
+Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.
+Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10873,12 +16251,67 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a reliable transportation hub, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. This top-rated destination is a must-visit spot for Gare routiere lovers. With a rating of 4.0, it's a spot you don't want to miss. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>Where can you find a highly reputable transportation hub in Manouba that caters to Gare routiere enthusiasts?</t>
+          <t>Day Plan:
+**Morning:** Explore Universitaire de La Manouba, a renowned university, and learn about its academic facilities and programs.
+**Mid-Morning:** Visit CAFE'IN, a trendy café known for its cozy ambiance and variety of coffee drinks. Enjoy a refreshing beverage and soak up the local atmosphere.
+**Midday:** Try local cuisine at BADI, a highly-rated Tunisian restaurant. Immerse yourself in authentic flavors and experience the culinary delights of the region.
+**Afternoon:** Visit Palais Kobbet Ennhas, a historical site and wedding chapel. Admire its magnificent architecture and learn about its cultural significance.
+**Evening:** Explore the scenic Mosquée de Manouba, immerse yourself in its spiritual atmosphere, and admire its stunning architecture.
+**Night:** Relax and unwind at Station-service Shell, a gas station that offers a variety of services, including a convenience store and a car wash. Refuel your vehicle and enjoy the convenience of their 24-hour operation.</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.
+PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 9:30am to 11:00pm and is closed on Sundays. It is located at the coordinates (36.812374, 10.0930597).
+CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.
+**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.
+Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.
+Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.
+Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.
+The Military National Museum of Manouba is located in Tunisia and proposes a historical journey through military history. This attraction offers many insights into the country's military history and displays ancient weaponry, uniforms, and vehicles. It is a great place to learn about Tunisia's military history and see some impressive artifacts. The museum is also located in a beautiful palace, which is worth a visit in its own right.
+Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.
+Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.
+The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.
+Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.
+Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.
+La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.
+The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.
+Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.
+2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.
+BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).
+Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.
+The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).
+Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).
+Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
